--- a/SMC Challenge 6/eligibility criteria/Dataset1_Prior_Therapy_Trials_First.xlsx
+++ b/SMC Challenge 6/eligibility criteria/Dataset1_Prior_Therapy_Trials_First.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332A077D-21D8-47D1-B234-3AC321ED34F4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB571ED-BB1D-45BE-92B9-72E2C3AEE0AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="1423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="1425">
   <si>
     <t>nci_id</t>
   </si>
@@ -3991,40 +3991,6 @@
 2-24 months post-completion of surgery, radiation therapy and/or chemotherapy with no further planned treatment during the 12-week study
 EXCLUSION
 Radiation pneumonitis currently being treated with oral steroids</t>
-  </si>
-  <si>
-    <t>Patients who have received prior chemotherapy for any abdominal or pelvic tumor OTHER THAN for the treatment of ovarian, fallopian tube, or primary peritoneal cancer within the last three years are excluded; patients may have received prior adjuvant chemotherapy and radiotherapy for localized breast cancer, provided that it was completed more than 2 years prior to registration, and the patient remains free of recurrent or metastatic disease and hormonal therapy has been discontinued; patients who have received prior radiotherapy to any portion of the abdominal cavity or pelvis or thoracic cavity within the last three years are excluded; prior radiation for localized cancer of the head and neck or skin is permitted, provided that it was completed more than three years prior to registration, and the patient remains free of recurrent or metastatic disease
-Patients who have had prior therapy with nivolumab or with an anti-programmed cell death (PD)-1, anti-PD-ligand (L)1, anti-PD-L2, anti-cytotoxic T-lymphocyte-antigen (CTLA)-4 antibody, or any other antibody or drug specifically targeting T-cell co-stimulation or immune check point pathways
-The following medications are contraindicated or must be used with caution
-* Contraindicated:
-** Cytochrome P450, family 2, subfamily C, polypeptide 8 (CYP2C8) strong and moderate inhibitors
-** CYP2C8 inducers
-** Cytochrome P450, family 3, subfamily A, polypeptide 4 (CYP3A4) strong and moderate inhibitors
-** CYP3A4 inducers
-** CYP3A4 sensitive substrates
-* Exclusions: the following supportive care medications will be allowed: dexamethasone, aprepitant, fosaprepitant, and ondansetron; oral pain medications such as hydrocodone, oxycodone taken on an as needed basis are also permitted; transdermal products designed for systemic delivery must be assessed for interaction potential; topical products not designed to provide systemic delivery (including inhaled products, ophthalmologic products and transvaginal preparations) do not need to be considered since they do not have appreciable systemic absorption
-* Other contraindicated medications (per above) are not allowed unless close monitoring with labs or drug levels with dose adjustments is feasible; patients taking these concurrent medications are ineligible unless they can discontinue or switched to alternative medications prior to initiation of the study drug (at least 5 half-lives)
-* Use with caution:
-** CYP2C8 sensitive substrates
-** CYP2C8 weak inhibitors
-** CYP3A4 non-sensitive substrates
-** CYP3A4 weak inhibitors
-* These agents may be permitted if discontinuation is not feasible and no acceptable alternatives are available as determined by the treating physician; however, caution should be used; consider monitoring with labs or drug levels and dose adjustments of the medication
-No prior carboplatin unless given in neoadjuvant/adjuvant setting for curative intent and more than 6 months have elapsed since last carboplatin dose; in the case of relapsed ovarian cancer, patients are eligible if more than 6 months have elapsed since last carboplatin dose
-Patients who have had chemotherapy or radiotherapy within 4 weeks (6 weeks for nitrosoureas or mitomycin C) or targeted therapies within 2 weeks prior to entering the study or those who have not recovered (=&lt; grade 1) from adverse events due to agents administered with the exception of any grade of alopecia
-INCLUSION
-Patients are allowed to have received up to three prior cytotoxic regimens for treatment of their epithelial ovarian, fallopian tube, or primary peritoneal cancer; they must have had one prior platinum-based chemotherapeutic regimen for management of primary disease, possibly including intra-peritoneal therapy, consolidation, biologic/targeted (non-cytotoxic) agents or extended therapy (maintenance/consolidation) administered after surgical or non-surgical assessment; patients are allowed to have received, but are not required to have received, one to two cytotoxic regimens for management of recurrent or persistent disease; (for the purposes of this study poly adenosine diphosphate [ADP] ribose polymerase [PARP] inhibitors given for recurrent or progressive disease will be considered cytotoxic; PARP inhibitors given as maintenance therapy in continuation with management of primary disease will not be considered as a separate cytotoxic regimen); if two cytotoxic regimens had been received for management of recurrent or persistent disease, one of these regimens would have had to contain either a platinum or a taxane agent
-Appropriate for study entry based on the following diagnostic workup:
-* History/physical examination within 28 days prior to registration
-* Imaging of target lesion(s) within 28 days prior to registration
-* Further protocol-specific assessments:
-** Recovery from effects of recent surgery, radiotherapy or chemotherapy
-** Free of active infection requiring antibiotics (with the exception of uncomplicated urinary tract infection [UTI])
-** Any hormonal therapy directed at the malignant tumor must be discontinued at least one week prior to registration
-** Any other prior therapy directed at the malignant tumor including chemotherapy, targeted agents, immunologic agents, and any investigational agents, must be discontinued at least 4 weeks prior to registration (6 weeks for nitrosoureas or mitomycin C) 
-** Any prior radiation therapy must be completed at least 4 weeks prior to registration
-** At least 4 weeks must have elapsed since major surgery
-Patients must have at least one â€œtargetâ€ lesion to be used to assess response on this protocol as defined by RECIST 1.1; tumors within a previously irradiated field will be designated as â€œnon-targetâ€ lesions unless progression is documented or a biopsy is obtained to confirm persistence at least 90 days following completion of radiation therapy</t>
   </si>
   <si>
     <t>EXCLUSION
@@ -5038,9 +5004,6 @@
     <t>(C16169=0 or (C16169=1 and C2926=0)) and (C15477=0 or (C15477=1 and C2926=0))</t>
   </si>
   <si>
-    <t>(C16171=0 or (C16171=1 and PRIor TREATMENT OF CURRENT CANCER=0) and C16169=1 and C15451=0 and (C16124=1 and C149=0)</t>
-  </si>
-  <si>
     <t>C16124=0 or C16124=1</t>
   </si>
   <si>
@@ -5051,9 +5014,6 @@
   </si>
   <si>
     <t>C16171=1 and C4870=1</t>
-  </si>
-  <si>
-    <t>(C16171=1 or ((C15477=0 or (C15477=1 and C12407=0 and C12767=0 and C12664=0)) and (C16169=0 or  (C16169=1 and C91837=0) or (C16175=1)</t>
   </si>
   <si>
     <t xml:space="preserve">C16171=0 and (C15477=0 or (C15477=1 and C54225=1)) </t>
@@ -5066,29 +5026,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">(C16171=0 or (C16171=1 and PRIor TREATMENT OF CURRENT CANCER=0) and (C16124=1 and C2167=0 or (C2167=1 and PRIor TREATMENT OF CURRENT CANCER=0)) and ((C15477=0 or (C15477=1 and C54225=1))  
-</t>
-  </si>
-  <si>
     <t>(C16171=0 or (C16171=1 and C4822=0)) and (C15477=0 or (C15477=1 and C4822=0)) and (C16169=0 or C16169=1)</t>
   </si>
   <si>
-    <t xml:space="preserve">C16169=1 and (C16171=0 or (C16171=1 and PRIor TREATMENT OF CURRENT CANCER=0)) and ((C15477=0 or (C15477=1 and C12767=0)) </t>
-  </si>
-  <si>
-    <t>(C16171=0 or C16171=1 and C12414=0)) and ((C15477=0 or (C15477=1 and C12414=0))</t>
-  </si>
-  <si>
     <t>(C16169=0 or C16169=1) and C16171=0 and C274=0 and C15477=0 and C16299=0</t>
   </si>
   <si>
     <t>C16169=1 and (C16171=0 or (C16171=1 and C9005=0)) and (C15477=0 or (C15477=1 and C54225=1))</t>
-  </si>
-  <si>
-    <t>(C16171=0 or (C16171=1) or (C16124=1 and C15679=1))) and (C16124=1 and (C288=0 and C981=0 and C408=0))</t>
-  </si>
-  <si>
-    <t>((C16171=0 or (C16171=1 and C3794=0)) and ((C16124=1 and (C15187=0 or (C15187=1 and C3794=0))</t>
   </si>
   <si>
     <t>(C16169=0 or (C16169=1))  and C16171=0 and C15477=0 and C16175=0 and (C16124=1 and C15187=0)</t>
@@ -5113,12 +5057,6 @@
     <t xml:space="preserve">C16171=0 or (C16171=1 and C408=1 and C15750=1) </t>
   </si>
   <si>
-    <t>(C16171=0 or (C16171=1 and PRIor TREATMENT OF CURRENT CANCER=0)) and (C16175=0 or (C16175=1 and PRIor TREATMENT OF CURRENT CANCER=0)) and (C16169=0 or C16169=1) and (C15477=0 or C15477=1)</t>
-  </si>
-  <si>
-    <t>C16171=0 or (C16171=1 and C12664=0 and PEVIS=0)</t>
-  </si>
-  <si>
     <t>C16175=0 and (C15477=0 or (C15477=1 and C54225=1 and C12767=0 and C12410=0)) and (C16169=0 or (C16169=1 and C12410=0 and C12412=0))</t>
   </si>
   <si>
@@ -5131,9 +5069,6 @@
     <t>(C16171=0 or (C16171=1)) and (C16175=0 or C16175=1) and (C15477=0 or (C15477=1 and C12767=0))</t>
   </si>
   <si>
-    <t>(C16171=0 or (C16171=1 and PRIor TREATMENT OF CURRENT CANCER=0)) and (C15477=0 or (C15477=1 and PRIor TREATMENT OF CURRENT CANCER=0)) and (C16124=1 and (C15187=0 or (C15187=1 and PRIor TREATMENT OF CURRENT CANCER=0))) and (C16175=0 or (C16175=1 and PRIor TREATMENT OF CURRENT CANCER=0)) and (C16169=0 or C16169=1)</t>
-  </si>
-  <si>
     <t>C16124=1 or C16124=0</t>
   </si>
   <si>
@@ -5183,9 +5118,6 @@
   </si>
   <si>
     <t>(C16171=0 or C16171=1) and (C16168=0 or C16168=1) and (C16124=1 and (C15187=0 or C15187=1)) and (C15477=0 or C15477=1) and (C16124=1 and C62554=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(C16171=1 or C15477=1 or C16168=1 or (C16124=1 and C15187=1) and (C16124=1 and C52200=0 and C143099=0 and HGF Inhibitor=0) or (C93259=1)) </t>
   </si>
   <si>
     <t>C15477=1 or (C16124=1 and C15187=1)</t>
@@ -5210,9 +5142,6 @@
     <t>(C16171=0 or (C16171=1 and C34447=0)) and (C2167=0 or (C2167=1 and C34447=0)) and (C15477=0 or (C15477=1 and C54225))</t>
   </si>
   <si>
-    <t>(C16171=0 or (C16171=1 and PRIor TREATMENT OF CURRENT CANCER=0)) and (C15477=0 or (C15477=1  and C54225=1))</t>
-  </si>
-  <si>
     <t>C16124=1</t>
   </si>
   <si>
@@ -5244,9 +5173,6 @@
   </si>
   <si>
     <t>C16171=1 or C15477=1 or (C16124=1 and C49135=1)</t>
-  </si>
-  <si>
-    <t>(C16168=0 or (C16168=1 and (C16124=1 and (C68814=0 and C124946=0 and PD-L1 INHIBITor=0)))) or C16171=1 or C16169=1 or C15477=1</t>
   </si>
   <si>
     <t>(C15477=0 or C15477=1) and (C16169=0 or C16169=1) and (C16171=0 or C16171=1) and (C16168=0 or C16168=1) and (C16124=1 and (C15187=0 or C15187=1))</t>
@@ -5295,9 +5221,6 @@
     <t>(C16171=1 or C15477=1) and (C16124&gt;=2 and C3242=1)</t>
   </si>
   <si>
-    <t>(C16124=1 and T-CELL CO-STMULATor=0 and C143250=0 and  BRAF INHIBITor=0 and C69145=0) and (C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16168=0 or  C16168=1) and (C16124=1 and (C15187=0 or C15187=1))</t>
-  </si>
-  <si>
     <t>(C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16168=0 or C16168=1) and (C16124=1 and (C15187=0 or C15187=1))</t>
   </si>
   <si>
@@ -5349,9 +5272,6 @@
     <t>C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16168=0 or C16168=1) and (C16124=1 and (C15187=0 or C15187=1) and (C16175=0 or C16175=1)</t>
   </si>
   <si>
-    <t>C15477=1 or C16169=1 or (C16124=1 and C15187=1) or (PRIor=1 and C49135=1)</t>
-  </si>
-  <si>
     <t>(C16171=0 or (C16171=1 and C408=1 and C15750=1)) and (C15477=0 or (C15477=1 and C25389=1))</t>
   </si>
   <si>
@@ -5359,9 +5279,6 @@
   </si>
   <si>
     <t>C16171=1 or C15477=1 or (C16124=1 and C15187=1) or (C16124=1 and C49135=1)</t>
-  </si>
-  <si>
-    <t>(C15477=1 or C16171=1 or (C16124=1 and C49135=1)) and (C16124=1 and (C2201=0 and C105391=0 and skin-derived (PI3) kinase or Akt inhibitors=0))</t>
   </si>
   <si>
     <t>C16171=1 or C16168=1 or C15477=1 or (C16124=1 and C49135=1) or (C16124=1 and C15187=1)</t>
@@ -5386,9 +5303,6 @@
 </t>
   </si>
   <si>
-    <t>(C16171=0 or (C16171=1 and C19151=0)) and (C16168=0 or (C16168=1 and C19151=0)) and (C16124=1 and (C49135=0 or (C49135=1 and C19151=0))) and (C15477=0 or C15477=1) and (C16169=0 or C16169=1) and (C16124=1 and (C128036=0 and C124946=0 and BRAF INHIBITor=0 and C69145=0)</t>
-  </si>
-  <si>
     <t>C15477=0 or (C15477=1 and C3995=0)</t>
   </si>
   <si>
@@ -5398,21 +5312,12 @@
     <t>((C16124=1 and C49135=1) or C16171=1 or C15477=1 or (C16124=1 and C15187=1)) and (C16124=1 and C52200=0)</t>
   </si>
   <si>
-    <t>(C16124=1 and (C41161=0 or C41161=1)) and (C16168=0 or C16168=1) and (PRIor=1 and (Anti CD137=0 and C2682=0 and C143250=0 and  T-cell co-stimulator=0)</t>
-  </si>
-  <si>
     <t>C15477=1 or C16171=1 or (C16124=1 and C49135=1)</t>
   </si>
   <si>
     <t>(C16168=0 or C16168=1) and (C16124=1 and (C49135=0 or C49135=1)) and (C15477=0 or (C15477=1 and C12767=0))</t>
   </si>
   <si>
-    <t>(C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16124=1 and (C143250=0 and  T-cell co-stimulator=0)</t>
-  </si>
-  <si>
-    <t>(C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16168=0 or C16168=1) and (C16124=1 and (C15370=0 or C15370=1) and (C16124=1 and (C15187=0 or C15187=1)) and (C16124=1 and (C49135=0 or C49135=1)) and (C16124=1 and (BRAF INHIBITor=0 or (BRAF INHIBITor=1 and C82386=1)) and (C69145=0 or (C69145=1 and C77908=1)))</t>
-  </si>
-  <si>
     <t>C16171=0 or (C16171=1 and (C560=1 or (C408=1 and C15750=1))) or (C16124=1 and C900=1)</t>
   </si>
   <si>
@@ -5422,24 +5327,15 @@
     <t>(C16171=0 or C16171=1) and (C16169=0 or C16169=1) and (C15477=0 or C15477=1) and (C16124=1 and (C15187=0 or C15187=1)) and (C16124=1 and ((C49135=0 or C49135=1) and C130200=0))</t>
   </si>
   <si>
-    <t>(C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16124=1 and (C143250=0 and  T-cell co-stimulator=0))</t>
-  </si>
-  <si>
     <t>(C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16124=1 and ((C2167=0 or (C2167=1 and C15675=0 and C19151=0)))</t>
   </si>
   <si>
     <t>C130200=0 and C16124=1 and (C16124=1 and C102546=0)</t>
   </si>
   <si>
-    <t>(C15477=1 or C16171=1 or C16175=1 or C16169=1) and (C16124=1 and (C143250=0 and  T-cell co-stimulator=0 and C111374=0 and CYP3A4 sensitive substrate=0 and CYP2C8 inducer=0)</t>
-  </si>
-  <si>
     <t>(C16171=0 or C16171=1) and (C15477=0 or C15477=1) and C126836=1</t>
   </si>
   <si>
-    <t>(C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16168=0 or C16168=1) or (C16124=1 and (C49135=0 or C49135=1) and (PD-L1 Inhibitor=0 or (PD-L1 Inhibitor=1 and C15675=0)) and (C124946=0 or (C124946=1 and C15675=0)))</t>
-  </si>
-  <si>
     <t>(C16171=0 or C16171=1) and (C15477=0 or (C15477=1 and C12439=1 and C25326=0)) and (C16169=0 or C16169=1)</t>
   </si>
   <si>
@@ -5461,15 +5357,9 @@
     <t>(C16171=0 or C16171=1) and (C15477=0 or (C15477=1 and C54225=1)</t>
   </si>
   <si>
-    <t>(C16168=0 or C16168=1) and (C16124=1 and (C15187=0 or C15187=1)) and (C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16124=1 and ((C49135=0 0R C49135=1) and PD-L1 Inhibitor=0 and C124946=0 and C128036=0))</t>
-  </si>
-  <si>
     <t>C15477=1 and (C16124=1 and (C49135=0 or C49135=1))</t>
   </si>
   <si>
-    <t>(C16171=0 or C16171=C408) and C15477=0 and (C16124=1 and ANTI-LEUKEMIC THERAPY=0)</t>
-  </si>
-  <si>
     <t>C16169=1 and (C15477=1 and C1244=1) and (C16171=0 or C16171=C1244) and (C16168=0 or (C16168=1 and C12439=0)) and (C16124=1 and (C15187=0 or (C15187=1 and C12439=0)) and (C16175=0 or (C16175=1 and C12439=0))</t>
   </si>
   <si>
@@ -5479,12 +5369,6 @@
     <t>(C16124=1 and (C66939=0 and C69145=0 and (C49135=0 or C49135=1)) and (C16169=0 or C16169=1) and (C16171=0 or C16171=1)</t>
   </si>
   <si>
-    <t>(C16171=0 or C16171=1) and (C16124=1 and (C15187=0 or C15187=1)) and (C15477=0 or C15477=1) and (C16124=1 and (C49135=0 or C49135=1) and C143250=0 and  T-cell co-stimulator=0))</t>
-  </si>
-  <si>
-    <t>(C16124=1 and CD40 TARGETING DRUG=0) and (C16171=0 or (C16171=1 and C9005=0)) and (C15477=0 or (C15477=1 and C9005=0)) and (C16124=1 and (C49135=0 or (C49135=1 and C9005=0)))</t>
-  </si>
-  <si>
     <t>(C16124=1 and (C1567=0 and C1220=0 and C1656=0 and C61313=0) and C16171=1</t>
   </si>
   <si>
@@ -5494,15 +5378,9 @@
     <t>(C16169=0 or C16169=1) and (C15477=0 or C15477=1) and (C16171=0 or C16171=1) and (C16124=1 and (C49135=0 or C49135=1))</t>
   </si>
   <si>
-    <t>(C16124=0 or (C16124=1 and C15698=1 and Advanced G3 0n-small Cell Gastroenteropancreatic  Neuroendocrine Carci0ma=0)) and (C15477=0 or C15477=1) and (C16169=0 or C16169=1)</t>
-  </si>
-  <si>
     <t>(((C16171=0 or (C16171=1 and C1450=1)) and (C15477=0 or C15477=1) and (C16175=0 or C16175=1) and (C16169=0 or C16169=1) and (C16175=0 or C16175=1)) or (C16124=1 and C2039=1)) and (C16124=1 and ((C93259=0 and C38155=1) and C15369=0 and C116470 and C62554=0))</t>
   </si>
   <si>
-    <t>(C16124=1 and ((C93259=0 and Angiopoietin Pathway Inhibitor=0 and C62554=0 and C38155=1) or C2039=1)) and (C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16175=0 or C16175=1)</t>
-  </si>
-  <si>
     <t>C16169=1 or C16171=1 or C15477=1 or C16168=1</t>
   </si>
   <si>
@@ -5515,15 +5393,6 @@
     <t>(C16169=1 or C16171=1 or (C16124=1 and C15187=1) or C16168=1 or C15477=1) and C130200=0 and (C16124=1 and C70792=0)</t>
   </si>
   <si>
-    <t>(C16124=1 and C15256=0) and (C15477=0 or C15477=1) and (C16171=0 or C16171=1)?</t>
-  </si>
-  <si>
-    <t>(C16171=0 or C16171=1) and (C16124=1 and (C49135=0 or C49135=1)) and (C16175=0 or C16175=1) and (C15477=0 or C15477=1) and (C16124=1 and (C85454=0 and HSP90 Inhibitor=0))</t>
-  </si>
-  <si>
-    <t>(C16171=1 or C15477=1) and (PRIor=1 and C2201=0)</t>
-  </si>
-  <si>
     <t xml:space="preserve">C16171=1 or C15477=1 or (C16124=1 and C15187=1) or C16169=1 </t>
   </si>
   <si>
@@ -5566,9 +5435,6 @@
     <t>C16171=0 or (C16171=1 and C19151=0)</t>
   </si>
   <si>
-    <t>(C16171=0 or (C16171=1 and PRIor TREATMENT OF CURRENT CANCER=0)) and (C15477=0 or (C15477=1 and C12418=0))</t>
-  </si>
-  <si>
     <t>(C16124=1 and (C49135=1 or C49135=0)) and (C16171=1 or C16171=0) and (C15477=0 or C15477=1)</t>
   </si>
   <si>
@@ -5578,22 +5444,13 @@
     <t>(C16169=1 or C16169=0) and (C16171=0 or (C16171=1 and C93259=0) or (C16171=1 and C93259=1 and C9385=0)) and (C15477=1 or C15477=0)</t>
   </si>
   <si>
-    <t>(C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16168=0 or C16168=1) and (C16124=1 and (C81934=0 and ITK Inhibitor=0)</t>
-  </si>
-  <si>
     <t>(C16171=1 or C16171=0) and (C15477=1 or C15477=0)</t>
   </si>
   <si>
     <t>(C15477=0 or (C15477=1 and C12439=0)) and (C16171=0 or C16171=1)</t>
   </si>
   <si>
-    <t>(C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16124=1 and (C15289=0 and PD-L2 INHIBITor=0 and PD-L1 Inhibitor=0)</t>
-  </si>
-  <si>
     <t>C16171=0 and (C15477=0 or (C15477=1 and C12767=0)</t>
-  </si>
-  <si>
-    <t>(C16124=1 and (ATR/Checkpoint Kinase 1 (CHK1) Pathway Inhibitor=0 and (C66876=0 or (C66876=1 and C15756=0)))) and (C16175=0 or C16175=1) and (C16171=0 or C16171=1)</t>
   </si>
   <si>
     <t>C16169=1</t>
@@ -5615,31 +5472,15 @@
     <t>(C16169=0 or (C16169=1 and C84399=0)) and (C16171=0 or C16171=1) and (C15477=0 or C15477=1)</t>
   </si>
   <si>
-    <t>(C15477=0 or C15477=1) and (C16124=1 and (C1946=0 or (C1946=1 and C94764=0) and (Deacetylase Inhibitor=0 or (Deacetylase Inhibitor=1 and C94764=0) and (HSP90 INHIBITor=0 or (HSP90 INHIBITor=1 and C94764=0) and (C49135=0 or C49135=1)) and (C16124=1 (C15187=0 or C15187=1)) and (C16168=0 or C16168=1)</t>
-  </si>
-  <si>
-    <t>(C16124=1 and (C74547=0 and Phosphoi0sitide 3-kinase (PI3K) Inhibitor=0 and C2201=0 and Protein Kinase B (AKT) Inhibitor=0 and Dual PI3K/mTor Complex (CREB Regulated Transcription Coactivator [TorC]1/TorC2) Inhibitor)=0)) and C16171=1</t>
-  </si>
-  <si>
     <t>(C16124=1 and C66876=0) and (C16171=1 or C15477=1)</t>
   </si>
   <si>
     <t>(C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16124=1 and (C15187=0 or C15187=1))</t>
   </si>
   <si>
-    <t>C147925=0 and (C16124=1 and (PD-L1 Inhibitor=0 and C124946=0 and PD-L2 INHIBITor=0)) and (C16171=0 or C16171=1) and (C15477=0 or C15477=1)</t>
-  </si>
-  <si>
     <t>(C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16124=1 and (C62554=0 and C62040=0)) and (C16169=0 or C16169=1)</t>
   </si>
   <si>
-    <t>(C16171=1 and C1450=1 and C191=1) and (C16124 and (C15187=0 or C15187=1) and (C16124=1 and ((C49135=0 or C49135=1) and C1526=0 and C69145=0 and Phosphatidyli0sitol 3 kinase (PI3K)/v-akt murine thymoma viral oncogene homolog 1 (AKT)/mammalian target of rapamycin (mTor) pathway inhibitor=0) and (C16169=0 or C16169=1) and (C15477=0 or (C15477=1 and C54225=1)) and (C16124=1 and (C143250=0 and T-cell co-stimulator=0))</t>
-  </si>
-  <si>
-    <t>(C16169=0 or C16169=1)
-0T CLEAR IF BY "TUMor-DIRECTED" THEY MEAN THE C25471 TUMor or ANY CANCER?</t>
-  </si>
-  <si>
     <t>(C16171=1) or (C16124=1 and C15187=1)</t>
   </si>
   <si>
@@ -5652,9 +5493,6 @@
     <t>(C16171=0 or C16171=1) and (C16175=0 or C16175=1) and (C15477=0 or C15477=1)</t>
   </si>
   <si>
-    <t>(PRIor=1 and phosphatidyli0sitol 3 kinase (PI3K)/v-akt murine thymoma viral oncogene homolog 1 (AKT)/mammalian target of rapamycin (mTor) pathway inhibitor=0) and C15477=1 and (C16175=0 or C16175=1) and (C16124=1 and (C15187=0 or C15187=1) and (C16168=0 or C16168=1)</t>
-  </si>
-  <si>
     <t>(C16171=0 or (C16171=1 and C9385=0)) and (C15477=0 or (C15477=1 and C9385=0)) and (C49135=0 or (C49135=1 and C9385=0)) and (C16169=0 or (C16169=1 and C9385=0)) and (C16168=0 or (C16168=1 and C9385=0)) and (C16175=0 or (C16175=1 and C9385=0))</t>
   </si>
   <si>
@@ -5670,17 +5508,183 @@
     <t>C130200=0 and (C16171=0 or C16171=1) and (C16168=0 or C16168=1) and (C15477=0 or C15477=1) and (C16124=1 and C91392=0)</t>
   </si>
   <si>
-    <t>(C16169=0 or C16169=1) and C16124 C15698 for C25471 Cancer=0 and (C15477=0 or (C15477=1 and C54225=1)) and (C16171=0 or C16171=1) and (C16124=1 and (C49135=0 or C49135=1))</t>
-  </si>
-  <si>
-    <t>(C15477=0 or C15477=1 and C54225=1) and (C16171=0 or (C16171=1 and Prior Systemic Therapy for Current Cancer=0)) and (C16124=1 and (C15187=0 or (C15187=1 and Prior Systemic Therapy for Current Cancer=0))) and (C16168=0 or (C16168=1 and C124946=0 and PD-L1 Inhibitor=0 and PD-L2 INHIBITor=0)) and (C16169=0 or C16169=1)                         
-I INCLUDED PRIor SURGERY=0 SO THAT IT INCLUDES 0N-HIGH RISK SCCs</t>
-  </si>
-  <si>
     <t>(C16171=0 or C16171=1) and (C16168=0 or C16168=1)  and (C15477=0 or C15477=1) and C130200=0 and (C16124=1 and C1863=0)</t>
   </si>
   <si>
     <t>C16171=1 or (C16124=1 and C15187=1)  or C15477=1 or (C16124=1 and C49135=1)</t>
+  </si>
+  <si>
+    <t>Prior Treatment of Current Cancer</t>
+  </si>
+  <si>
+    <t>C90909</t>
+  </si>
+  <si>
+    <t>(C16171=0 or (C16171=1 and C90901=0)) and (C16175=0 or (C16175=1 and C90901=0)) and (C16169=0 or C16169=1) and (C15477=0 or C15477=1)</t>
+  </si>
+  <si>
+    <t>(C16171=0 or (C16171=1 and C90901=0)) and (C15477=0 or (C15477=1 and C90901=0)) and (C16124=1 and (C15187=0 or (C15187=1 and C90901=0))) and (C16175=0 or (C16175=1 and C90901=0)) and (C16169=0 or C16169=1)</t>
+  </si>
+  <si>
+    <t>(C16171=0 or (C16171=1 and C90901=0)) and (C15477=0 or (C15477=1  and C54225=1))</t>
+  </si>
+  <si>
+    <t>(C16171=0 or (C16171=1 and C90901=0)) and (C15477=0 or (C15477=1 and C12418=0))</t>
+  </si>
+  <si>
+    <t>(C16168=0 or (C16168=1 and (C16124=1 and (C68814=0 and C124946=0 and C90902=0)))) or C16171=1 or C16169=1 or C15477=1</t>
+  </si>
+  <si>
+    <t>(C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16168=0 or C16168=1) or (C16124=1 and (C49135=0 or C49135=1) and (C90902=0 or (C90902=1 and C15675=0)) and (C124946=0 or (C124946=1 and C15675=0)))</t>
+  </si>
+  <si>
+    <t>(C16124=1 and C90903=0 and C143250=0 and  C90904=0 and C69145=0) and (C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16168=0 or  C16168=1) and (C16124=1 and (C15187=0 or C15187=1))</t>
+  </si>
+  <si>
+    <t>(C16171=0 or (C16171=1 and C19151=0)) and (C16168=0 or (C16168=1 and C19151=0)) and (C16124=1 and (C49135=0 or (C49135=1 and C19151=0))) and (C15477=0 or C15477=1) and (C16169=0 or C16169=1) and (C16124=1 and (C128036=0 and C124946=0 and C90904=0 and C69145=0)</t>
+  </si>
+  <si>
+    <t>(C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16168=0 or C16168=1) and (C16124=1 and (C15370=0 or C15370=1) and (C16124=1 and (C15187=0 or C15187=1)) and (C16124=1 and (C49135=0 or C49135=1)) and (C16124=1 and (C90904=0 or (C90904=1 and C82386=1)) and (C69145=0 or (C69145=1 and C77908=1)))</t>
+  </si>
+  <si>
+    <t>C15477=1 or C16169=1 or (C16124=1 and C15187=1) or (16124=1 and C49135=1)</t>
+  </si>
+  <si>
+    <t>(C15477=1 or C16171=1 or (C16124=1 and C49135=1)) and (C16124=1 and (C2201=0 and C105391=0 and C90905=0 and C90906=0))</t>
+  </si>
+  <si>
+    <t>(C16171=1 or C15477=1) and (C16124=1 and C2201=0)</t>
+  </si>
+  <si>
+    <t>(C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16124=1 and (C143250=0 and  C90903=0)</t>
+  </si>
+  <si>
+    <t>(C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16124=1 and (C143250=0 and  C90903=0))</t>
+  </si>
+  <si>
+    <t>(C16171=0 or C16171=1) and (C16124=1 and (C15187=0 or C15187=1)) and (C15477=0 or C15477=1) and (C16124=1 and (C49135=0 or C49135=1) and C143250=0 and  C90903=0))</t>
+  </si>
+  <si>
+    <t>(C16124=1 and (C41161=0 or C41161=1)) and (C16168=0 or C16168=1) and (C16124=1 and (C90907=0 and C2682=0 and C143250=0 and  C90903=0)</t>
+  </si>
+  <si>
+    <t>Patients who have received prior chemotherapy for any abdominal or pelvic tumor OTHER THAN for the treatment of ovarian, fallopian tube, or primary peritoneal cancer within the last three years are excluded; patients may have received prior adjuvant chemotherapy and radiotherapy for localized breast cancer, provided that it was completed more than 2 years prior to registration, and the patient remains free of recurrent or metastatic disease and hormonal therapy has been discontinued; patients who have received prior radiotherapy to any portion of the abdominal cavity or pelvis or thoracic cavity within the last three years are excluded; prior radiation for localized cancer of the head and neck or skin is permitted, provided that it was completed more than three years prior to registration, and the patient remains free of recurrent or metastatic disease
+Patients who have had prior therapy with nivolumab or with an anti-programmed cell death (PD)-1, anti-PD-ligand (L)1, anti-PD-L2, anti-cytotoxic T-lymphocyte-antigen (CTLA)-4 antibody, or any other antibody or drug specifically targeting T-cell co-stimulation or immune check point pathways
+The following medications are contraindicated or must be used with caution
+* Contraindicated:
+** Cytochrome P450, family 2, subfamily C, polypeptide 8 (CYP2C8) strong and moderate inhibitors
+** C90909s
+** Cytochrome P450, family 3, subfamily A, polypeptide 4 (CYP3A4) strong and moderate inhibitors
+** CYP3A4 inducers
+** C90908s
+* Exclusions: the following supportive care medications will be allowed: dexamethasone, aprepitant, fosaprepitant, and ondansetron; oral pain medications such as hydrocodone, oxycodone taken on an as needed basis are also permitted; transdermal products designed for systemic delivery must be assessed for interaction potential; topical products not designed to provide systemic delivery (including inhaled products, ophthalmologic products and transvaginal preparations) do not need to be considered since they do not have appreciable systemic absorption
+* Other contraindicated medications (per above) are not allowed unless close monitoring with labs or drug levels with dose adjustments is feasible; patients taking these concurrent medications are ineligible unless they can discontinue or switched to alternative medications prior to initiation of the study drug (at least 5 half-lives)
+* Use with caution:
+** CYP2C8 sensitive substrates
+** CYP2C8 weak inhibitors
+** CYP3A4 non-sensitive substrates
+** CYP3A4 weak inhibitors
+* These agents may be permitted if discontinuation is not feasible and no acceptable alternatives are available as determined by the treating physician; however, caution should be used; consider monitoring with labs or drug levels and dose adjustments of the medication
+No prior carboplatin unless given in neoadjuvant/adjuvant setting for curative intent and more than 6 months have elapsed since last carboplatin dose; in the case of relapsed ovarian cancer, patients are eligible if more than 6 months have elapsed since last carboplatin dose
+Patients who have had chemotherapy or radiotherapy within 4 weeks (6 weeks for nitrosoureas or mitomycin C) or targeted therapies within 2 weeks prior to entering the study or those who have not recovered (=&lt; grade 1) from adverse events due to agents administered with the exception of any grade of alopecia
+INCLUSION
+Patients are allowed to have received up to three prior cytotoxic regimens for treatment of their epithelial ovarian, fallopian tube, or primary peritoneal cancer; they must have had one prior platinum-based chemotherapeutic regimen for management of primary disease, possibly including intra-peritoneal therapy, consolidation, biologic/targeted (non-cytotoxic) agents or extended therapy (maintenance/consolidation) administered after surgical or non-surgical assessment; patients are allowed to have received, but are not required to have received, one to two cytotoxic regimens for management of recurrent or persistent disease; (for the purposes of this study poly adenosine diphosphate [ADP] ribose polymerase [PARP] inhibitors given for recurrent or progressive disease will be considered cytotoxic; PARP inhibitors given as maintenance therapy in continuation with management of primary disease will not be considered as a separate cytotoxic regimen); if two cytotoxic regimens had been received for management of recurrent or persistent disease, one of these regimens would have had to contain either a platinum or a taxane agent
+Appropriate for study entry based on the following diagnostic workup:
+* History/physical examination within 28 days prior to registration
+* Imaging of target lesion(s) within 28 days prior to registration
+* Further protocol-specific assessments:
+** Recovery from effects of recent surgery, radiotherapy or chemotherapy
+** Free of active infection requiring antibiotics (with the exception of uncomplicated urinary tract infection [UTI])
+** Any hormonal therapy directed at the malignant tumor must be discontinued at least one week prior to registration
+** Any other prior therapy directed at the malignant tumor including chemotherapy, targeted agents, immunologic agents, and any investigational agents, must be discontinued at least 4 weeks prior to registration (6 weeks for nitrosoureas or mitomycin C) 
+** Any prior radiation therapy must be completed at least 4 weeks prior to registration
+** At least 4 weeks must have elapsed since major surgery
+Patients must have at least one â€œtargetâ€ lesion to be used to assess response on this protocol as defined by RECIST 1.1; tumors within a previously irradiated field will be designated as â€œnon-targetâ€ lesions unless progression is documented or a biopsy is obtained to confirm persistence at least 90 days following completion of radiation therapy</t>
+  </si>
+  <si>
+    <t>(C15477=1 or C16171=1 or C16175=1 or C16169=1) and (C16124=1 and (C143250=0 and  C90903=0 and C111374=0 and C90908=0 and C90909=0)</t>
+  </si>
+  <si>
+    <t>(C16171=0 or C16171=C408) and C15477=0 and (C16124=1 and C909010=0)</t>
+  </si>
+  <si>
+    <t>(C16124=1 and C909011=0) and (C16171=0 or (C16171=1 and C9005=0)) and (C15477=0 or (C15477=1 and C9005=0)) and (C16124=1 and (C49135=0 or (C49135=1 and C9005=0)))</t>
+  </si>
+  <si>
+    <t>(C16124=0 or (C16124=1 and C15698=1 and C909012=0)) and (C15477=0 or C15477=1) and (C16169=0 or C16169=1)</t>
+  </si>
+  <si>
+    <t>(C16171=0 or C16171=1) and (C16124=1 and (C49135=0 or C49135=1)) and (C16175=0 or C16175=1) and (C15477=0 or C15477=1) and (C16124=1 and (C85454=0 and C909013=0))</t>
+  </si>
+  <si>
+    <t>(C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16168=0 or C16168=1) and (C16124=1 and (C81934=0 and C909014=0)</t>
+  </si>
+  <si>
+    <t>(C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16124=1 and (C15289=0 and C909015=0 and C90902=0)</t>
+  </si>
+  <si>
+    <t>C147925=0 and (C16124=1 and (C90902=0 and C124946=0 and C909015=0)) and (C16171=0 or C16171=1) and (C15477=0 or C15477=1)</t>
+  </si>
+  <si>
+    <t>(C15477=0 or C15477=1) and (C16124=1 and (C1946=0 or (C1946=1 and C94764=0) and (C909016=0 or (C909016=1 and C94764=0) and (C909013=0 or (C909013=1 and C94764=0) and (C49135=0 or C49135=1)) and (C16124=1 (C15187=0 or C15187=1)) and (C16168=0 or C16168=1)</t>
+  </si>
+  <si>
+    <t>(C16124=1 and (C74547=0 and C909017=0 and C2201=0 and C90906=0 and C909018)=0)) and C16171=1</t>
+  </si>
+  <si>
+    <t>(C16171=1 and C1450=1 and C191=1) and (C16124 and (C15187=0 or C15187=1) and (C16124=1 and ((C49135=0 or C49135=1) and C1526=0 and C69145=0 and C909019=0) and (C16169=0 or C16169=1) and (C15477=0 or (C15477=1 and C54225=1)) and (C16124=1 and (C143250=0 and C90903=0))</t>
+  </si>
+  <si>
+    <t>(C16124=1 and C909019=0) and C15477=1 and (C16175=0 or C16175=1) and (C16124=1 and (C15187=0 or C15187=1) and (C16168=0 or C16168=1)</t>
+  </si>
+  <si>
+    <t>(C16169=0 or C16169=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(C15477=0 or C15477=1 and C54225=1) and (C16171=0 or (C16171=1 and C909020=0)) and (C16124=1 and (C15187=0 or (C15187=1 and C909020=0))) and (C16168=0 or (C16168=1 and C124946=0 and C90902=0 and C909015=0)) and (C16169=0 or C16169=1)                         </t>
+  </si>
+  <si>
+    <t>C16171=0 or (C16171=1 and C12664=0 and C909021=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(C16171=1 or C15477=1 or C16168=1 or (C16124=1 and C15187=1) and (C16124=1 and C52200=0 and C143099=0 and C909022=0) or (C93259=1)) </t>
+  </si>
+  <si>
+    <t>(C16124=1 and ((C93259=0 and C909023=0 and C62554=0 and C38155=1) or C2039=1)) and (C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16175=0 or C16175=1)</t>
+  </si>
+  <si>
+    <t>(C16124=1 and C15256=0) and (C15477=0 or C15477=1) and (C16171=0 or C16171=1)</t>
+  </si>
+  <si>
+    <t>(C16124=1 and (C909024=0 and (C66876=0 or (C66876=1 and C15756=0)))) and (C16175=0 or C16175=1) and (C16171=0 or C16171=1)</t>
+  </si>
+  <si>
+    <t>(C16168=0 or C16168=1) and (C16124=1 and (C15187=0 or C15187=1)) and (C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16124=1 and ((C49135=0 0R C49135=1) and C90902=0 and C124946=0 and C128036=0))</t>
+  </si>
+  <si>
+    <t>(C16169=0 or C16169=1) and C90901=0 and (C15477=0 or (C15477=1 and C54225=1)) and (C16171=0 or C16171=1) and (C16124=1 and (C49135=0 or C49135=1))</t>
+  </si>
+  <si>
+    <t>C16171=0 or (C16171=1 and C90901=0) and C16169=1 and C15451=0 and (C16124=1 and C149=0)</t>
+  </si>
+  <si>
+    <t>C16171=1 or (C15477=0 or (C15477=1 and C12407=0 and C12767=0 and C12664=0)) and (C16169=0 or  (C16169=1 and C91837=0) or (C16175=1))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C16171=0 or (C16171=1 and C90901=0) and (C16124=1 and C2167=0 or (C2167=1 and C90901=0)) and (C15477=0 or (C15477=1 and C54225=1))  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C16169=1 and (C16171=0 or (C16171=1 and C90901=0)) and (C15477=0 or (C15477=1 and C12767=0)) </t>
+  </si>
+  <si>
+    <t>(C16171=0 or C16171=1 and C12414=0) and (C15477=0 or (C15477=1 and C12414=0))</t>
+  </si>
+  <si>
+    <t>((C16171=0 or C16171=1) or (C16124=1 and C15679=1)) and (C16124=1 and (C288=0 and C981=0 and C408=0))</t>
+  </si>
+  <si>
+    <t>(C16171=0 or (C16171=1 and C3794=0)) and (C16124=1 and (C15187=0 or (C15187=1 and C3794=0)))</t>
   </si>
 </sst>
 </file>
@@ -6192,10 +6196,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F312"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6203,7 +6208,7 @@
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="61.42578125" style="27" customWidth="1"/>
     <col min="6" max="6" width="58.28515625" style="27" customWidth="1"/>
   </cols>
@@ -6219,16 +6224,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="10" customFormat="1" ht="240" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="10" customFormat="1" ht="240" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>417</v>
       </c>
@@ -6263,7 +6268,7 @@
         <v>487</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="10" customFormat="1" ht="362.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6280,10 +6285,10 @@
         <v>15</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>1211</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="10" customFormat="1" ht="225" x14ac:dyDescent="0.25">
@@ -6298,10 +6303,10 @@
         <v>15</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="29" customFormat="1" ht="285" x14ac:dyDescent="0.25">
@@ -6318,10 +6323,10 @@
         <v>880</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1" ht="135" x14ac:dyDescent="0.25">
@@ -6341,7 +6346,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="315" x14ac:dyDescent="0.25">
@@ -6361,7 +6366,7 @@
         <v>792</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="225" x14ac:dyDescent="0.25">
@@ -6381,7 +6386,7 @@
         <v>810</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="221.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6398,10 +6403,10 @@
         <v>809</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>1216</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -6421,7 +6426,7 @@
         <v>22</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -6438,10 +6443,10 @@
         <v>846</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -6461,7 +6466,7 @@
         <v>860</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -6481,7 +6486,7 @@
         <v>864</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>1220</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="225" x14ac:dyDescent="0.25">
@@ -6498,10 +6503,10 @@
         <v>880</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="10" customFormat="1" ht="345" x14ac:dyDescent="0.25">
@@ -6521,7 +6526,7 @@
         <v>875</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>1222</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="180" x14ac:dyDescent="0.25">
@@ -6541,7 +6546,7 @@
         <v>878</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>1223</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -6561,7 +6566,7 @@
         <v>886</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="300" x14ac:dyDescent="0.25">
@@ -6581,7 +6586,7 @@
         <v>899</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -6601,7 +6606,7 @@
         <v>910</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>1226</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="300" x14ac:dyDescent="0.25">
@@ -6618,10 +6623,10 @@
         <v>911</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>1227</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -6641,7 +6646,7 @@
         <v>56</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>1228</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -6661,7 +6666,7 @@
         <v>60</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>1229</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="10" customFormat="1" ht="150" x14ac:dyDescent="0.25">
@@ -6681,7 +6686,7 @@
         <v>914</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="195" x14ac:dyDescent="0.25">
@@ -6701,7 +6706,7 @@
         <v>68</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>1230</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="405" x14ac:dyDescent="0.25">
@@ -6721,7 +6726,7 @@
         <v>915</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>1231</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -6741,7 +6746,7 @@
         <v>916</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="315" x14ac:dyDescent="0.25">
@@ -6761,10 +6766,10 @@
         <v>917</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="10" customFormat="1" ht="300" x14ac:dyDescent="0.25">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="10" customFormat="1" ht="300" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>78</v>
       </c>
@@ -6799,7 +6804,7 @@
         <v>84</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>1234</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -6819,7 +6824,7 @@
         <v>88</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="270" x14ac:dyDescent="0.25">
@@ -6836,10 +6841,10 @@
         <v>7</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>1235</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="225" x14ac:dyDescent="0.25">
@@ -6859,7 +6864,7 @@
         <v>919</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>1236</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="300" x14ac:dyDescent="0.25">
@@ -6879,7 +6884,7 @@
         <v>920</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>1237</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -6896,10 +6901,10 @@
         <v>7</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>1238</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="165" x14ac:dyDescent="0.25">
@@ -6919,7 +6924,7 @@
         <v>104</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>1234</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -6936,10 +6941,10 @@
         <v>880</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>1239</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="210" x14ac:dyDescent="0.25">
@@ -6959,7 +6964,7 @@
         <v>955</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>1240</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -6979,7 +6984,7 @@
         <v>956</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="270" x14ac:dyDescent="0.25">
@@ -6999,10 +7004,10 @@
         <v>985</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>117</v>
       </c>
@@ -7037,7 +7042,7 @@
         <v>124</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>1242</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -7057,7 +7062,7 @@
         <v>1027</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>1243</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -7077,10 +7082,10 @@
         <v>1029</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>131</v>
       </c>
@@ -7115,7 +7120,7 @@
         <v>1033</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>1245</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="10" customFormat="1" ht="195" x14ac:dyDescent="0.25">
@@ -7135,7 +7140,7 @@
         <v>1034</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>1246</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="180" x14ac:dyDescent="0.25">
@@ -7155,7 +7160,7 @@
         <v>140</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>1247</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -7175,7 +7180,7 @@
         <v>147</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>1248</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -7195,7 +7200,7 @@
         <v>1030</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>1249</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="165" x14ac:dyDescent="0.25">
@@ -7215,7 +7220,7 @@
         <v>64</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>1250</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -7235,7 +7240,7 @@
         <v>1031</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>1251</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="195" x14ac:dyDescent="0.25">
@@ -7255,10 +7260,10 @@
         <v>1035</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>157</v>
       </c>
@@ -7293,7 +7298,7 @@
         <v>1036</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>1253</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="10" customFormat="1" ht="330" x14ac:dyDescent="0.25">
@@ -7313,7 +7318,7 @@
         <v>1037</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>1254</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="135" x14ac:dyDescent="0.25">
@@ -7333,7 +7338,7 @@
         <v>1038</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>1255</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="360" x14ac:dyDescent="0.25">
@@ -7353,7 +7358,7 @@
         <v>1039</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>1256</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="285" x14ac:dyDescent="0.25">
@@ -7373,7 +7378,7 @@
         <v>1040</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>1257</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -7393,7 +7398,7 @@
         <v>1041</v>
       </c>
       <c r="F60" s="24" t="s">
-        <v>1258</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -7413,10 +7418,10 @@
         <v>182</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>183</v>
       </c>
@@ -7451,7 +7456,7 @@
         <v>1042</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>1259</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -7471,7 +7476,7 @@
         <v>1043</v>
       </c>
       <c r="F64" s="24" t="s">
-        <v>1260</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -7491,7 +7496,7 @@
         <v>1044</v>
       </c>
       <c r="F65" s="24" t="s">
-        <v>1261</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="240" x14ac:dyDescent="0.25">
@@ -7511,7 +7516,7 @@
         <v>1045</v>
       </c>
       <c r="F66" s="24" t="s">
-        <v>1262</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="390" x14ac:dyDescent="0.25">
@@ -7531,7 +7536,7 @@
         <v>1046</v>
       </c>
       <c r="F67" s="24" t="s">
-        <v>1263</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="180" x14ac:dyDescent="0.25">
@@ -7551,7 +7556,7 @@
         <v>1047</v>
       </c>
       <c r="F68" s="24" t="s">
-        <v>1264</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="17" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
@@ -7571,7 +7576,7 @@
         <v>1048</v>
       </c>
       <c r="F69" s="24" t="s">
-        <v>1265</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="150" x14ac:dyDescent="0.25">
@@ -7591,7 +7596,7 @@
         <v>1049</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>1266</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="165" x14ac:dyDescent="0.25">
@@ -7611,7 +7616,7 @@
         <v>214</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -7631,7 +7636,7 @@
         <v>1050</v>
       </c>
       <c r="F72" s="24" t="s">
-        <v>1267</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="150" x14ac:dyDescent="0.25">
@@ -7651,7 +7656,7 @@
         <v>1051</v>
       </c>
       <c r="F73" s="24" t="s">
-        <v>1268</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -7671,7 +7676,7 @@
         <v>1052</v>
       </c>
       <c r="F74" s="24" t="s">
-        <v>1269</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="405" x14ac:dyDescent="0.25">
@@ -7691,7 +7696,7 @@
         <v>227</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>1270</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="180" x14ac:dyDescent="0.25">
@@ -7711,7 +7716,7 @@
         <v>1053</v>
       </c>
       <c r="F76" s="24" t="s">
-        <v>1271</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -7731,7 +7736,7 @@
         <v>1054</v>
       </c>
       <c r="F77" s="24" t="s">
-        <v>1272</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="315" x14ac:dyDescent="0.25">
@@ -7751,7 +7756,7 @@
         <v>1055</v>
       </c>
       <c r="F78" s="24" t="s">
-        <v>1273</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -7771,7 +7776,7 @@
         <v>240</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>1274</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -7791,7 +7796,7 @@
         <v>1056</v>
       </c>
       <c r="F80" s="24" t="s">
-        <v>1275</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -7811,7 +7816,7 @@
         <v>1057</v>
       </c>
       <c r="F81" s="24" t="s">
-        <v>1276</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="135" x14ac:dyDescent="0.25">
@@ -7831,7 +7836,7 @@
         <v>250</v>
       </c>
       <c r="F82" s="24" t="s">
-        <v>1277</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -7851,7 +7856,7 @@
         <v>254</v>
       </c>
       <c r="F83" s="24" t="s">
-        <v>1278</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -7871,7 +7876,7 @@
         <v>1058</v>
       </c>
       <c r="F84" s="24" t="s">
-        <v>1279</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -7891,7 +7896,7 @@
         <v>1059</v>
       </c>
       <c r="F85" s="24" t="s">
-        <v>1280</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="150" x14ac:dyDescent="0.25">
@@ -7911,7 +7916,7 @@
         <v>1060</v>
       </c>
       <c r="F86" s="24" t="s">
-        <v>1281</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="390" x14ac:dyDescent="0.25">
@@ -7931,7 +7936,7 @@
         <v>1061</v>
       </c>
       <c r="F87" s="24" t="s">
-        <v>1282</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -7951,7 +7956,7 @@
         <v>1062</v>
       </c>
       <c r="F88" s="24" t="s">
-        <v>1283</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="21" customFormat="1" ht="300" x14ac:dyDescent="0.25">
@@ -7971,7 +7976,7 @@
         <v>1063</v>
       </c>
       <c r="F89" s="24" t="s">
-        <v>1284</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -7991,7 +7996,7 @@
         <v>1064</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>1285</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8011,7 +8016,7 @@
         <v>1065</v>
       </c>
       <c r="F91" s="24" t="s">
-        <v>1286</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8031,7 +8036,7 @@
         <v>1066</v>
       </c>
       <c r="F92" s="24" t="s">
-        <v>1287</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8051,7 +8056,7 @@
         <v>1067</v>
       </c>
       <c r="F93" s="24" t="s">
-        <v>1288</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="330" x14ac:dyDescent="0.25">
@@ -8071,7 +8076,7 @@
         <v>1068</v>
       </c>
       <c r="F94" s="24" t="s">
-        <v>1289</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8091,7 +8096,7 @@
         <v>1069</v>
       </c>
       <c r="F95" s="19" t="s">
-        <v>1290</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8111,7 +8116,7 @@
         <v>1070</v>
       </c>
       <c r="F96" s="24" t="s">
-        <v>1291</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="180" x14ac:dyDescent="0.25">
@@ -8131,7 +8136,7 @@
         <v>1071</v>
       </c>
       <c r="F97" s="24" t="s">
-        <v>1292</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8151,7 +8156,7 @@
         <v>1072</v>
       </c>
       <c r="F98" s="24" t="s">
-        <v>1293</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8171,7 +8176,7 @@
         <v>1073</v>
       </c>
       <c r="F99" s="24" t="s">
-        <v>1294</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="390" x14ac:dyDescent="0.25">
@@ -8191,7 +8196,7 @@
         <v>1074</v>
       </c>
       <c r="F100" s="24" t="s">
-        <v>1295</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="300" x14ac:dyDescent="0.25">
@@ -8211,10 +8216,10 @@
         <v>1075</v>
       </c>
       <c r="F101" s="24" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>309</v>
       </c>
@@ -8249,7 +8254,7 @@
         <v>1050</v>
       </c>
       <c r="F103" s="24" t="s">
-        <v>1297</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8269,7 +8274,7 @@
         <v>1076</v>
       </c>
       <c r="F104" s="24" t="s">
-        <v>1298</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8289,7 +8294,7 @@
         <v>1077</v>
       </c>
       <c r="F105" s="24" t="s">
-        <v>1299</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="180" x14ac:dyDescent="0.25">
@@ -8309,7 +8314,7 @@
         <v>1078</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>1300</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="150" x14ac:dyDescent="0.25">
@@ -8329,7 +8334,7 @@
         <v>1079</v>
       </c>
       <c r="F107" s="24" t="s">
-        <v>1301</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="225" x14ac:dyDescent="0.25">
@@ -8349,7 +8354,7 @@
         <v>1080</v>
       </c>
       <c r="F108" s="24" t="s">
-        <v>1302</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="150" x14ac:dyDescent="0.25">
@@ -8369,7 +8374,7 @@
         <v>334</v>
       </c>
       <c r="F109" s="24" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8389,7 +8394,7 @@
         <v>1081</v>
       </c>
       <c r="F110" s="24" t="s">
-        <v>1284</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8409,7 +8414,7 @@
         <v>1082</v>
       </c>
       <c r="F111" s="24" t="s">
-        <v>1303</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -8429,7 +8434,7 @@
         <v>344</v>
       </c>
       <c r="F112" s="24" t="s">
-        <v>1268</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="195" x14ac:dyDescent="0.25">
@@ -8449,7 +8454,7 @@
         <v>348</v>
       </c>
       <c r="F113" s="24" t="s">
-        <v>1304</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="255" x14ac:dyDescent="0.25">
@@ -8469,7 +8474,7 @@
         <v>1083</v>
       </c>
       <c r="F114" s="24" t="s">
-        <v>1305</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8489,7 +8494,7 @@
         <v>1084</v>
       </c>
       <c r="F115" s="24" t="s">
-        <v>1306</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8509,7 +8514,7 @@
         <v>1085</v>
       </c>
       <c r="F116" s="24" t="s">
-        <v>1307</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="135" x14ac:dyDescent="0.25">
@@ -8529,7 +8534,7 @@
         <v>361</v>
       </c>
       <c r="F117" s="24" t="s">
-        <v>1268</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -8549,7 +8554,7 @@
         <v>1086</v>
       </c>
       <c r="F118" s="24" t="s">
-        <v>1308</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8569,7 +8574,7 @@
         <v>1087</v>
       </c>
       <c r="F119" s="24" t="s">
-        <v>1309</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8589,7 +8594,7 @@
         <v>371</v>
       </c>
       <c r="F120" s="24" t="s">
-        <v>1310</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -8609,7 +8614,7 @@
         <v>375</v>
       </c>
       <c r="F121" s="24" t="s">
-        <v>1239</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="255" x14ac:dyDescent="0.25">
@@ -8629,7 +8634,7 @@
         <v>1088</v>
       </c>
       <c r="F122" s="24" t="s">
-        <v>1311</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -8649,7 +8654,7 @@
         <v>1089</v>
       </c>
       <c r="F123" s="24" t="s">
-        <v>1312</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="195" x14ac:dyDescent="0.25">
@@ -8669,7 +8674,7 @@
         <v>1090</v>
       </c>
       <c r="F124" s="24" t="s">
-        <v>1313</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="390" x14ac:dyDescent="0.25">
@@ -8689,7 +8694,7 @@
         <v>388</v>
       </c>
       <c r="F125" s="24" t="s">
-        <v>1314</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8709,7 +8714,7 @@
         <v>1091</v>
       </c>
       <c r="F126" s="24" t="s">
-        <v>1315</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="150" x14ac:dyDescent="0.25">
@@ -8729,7 +8734,7 @@
         <v>1092</v>
       </c>
       <c r="F127" s="24" t="s">
-        <v>1316</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8749,7 +8754,7 @@
         <v>1093</v>
       </c>
       <c r="F128" s="24" t="s">
-        <v>1317</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="129" spans="1:6" s="25" customFormat="1" ht="315" x14ac:dyDescent="0.25">
@@ -8769,7 +8774,7 @@
         <v>1094</v>
       </c>
       <c r="F129" s="24" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="130" spans="1:6" s="25" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
@@ -8789,7 +8794,7 @@
         <v>1095</v>
       </c>
       <c r="F130" s="24" t="s">
-        <v>1319</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="165" x14ac:dyDescent="0.25">
@@ -8809,7 +8814,7 @@
         <v>407</v>
       </c>
       <c r="F131" s="24" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="315" x14ac:dyDescent="0.25">
@@ -8829,7 +8834,7 @@
         <v>1096</v>
       </c>
       <c r="F132" s="24" t="s">
-        <v>1239</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="255" x14ac:dyDescent="0.25">
@@ -8849,7 +8854,7 @@
         <v>1097</v>
       </c>
       <c r="F133" s="24" t="s">
-        <v>1321</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8869,7 +8874,7 @@
         <v>1098</v>
       </c>
       <c r="F134" s="24" t="s">
-        <v>1322</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="195" x14ac:dyDescent="0.25">
@@ -8889,7 +8894,7 @@
         <v>1099</v>
       </c>
       <c r="F135" s="24" t="s">
-        <v>1323</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8906,10 +8911,10 @@
         <v>7</v>
       </c>
       <c r="E136" s="30" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="F136" s="24" t="s">
-        <v>1324</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="330" x14ac:dyDescent="0.25">
@@ -8929,7 +8934,7 @@
         <v>1100</v>
       </c>
       <c r="F137" s="24" t="s">
-        <v>1325</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="135" x14ac:dyDescent="0.25">
@@ -8949,7 +8954,7 @@
         <v>433</v>
       </c>
       <c r="F138" s="24" t="s">
-        <v>1326</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8969,7 +8974,7 @@
         <v>1101</v>
       </c>
       <c r="F139" s="24" t="s">
-        <v>1327</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8989,7 +8994,7 @@
         <v>1102</v>
       </c>
       <c r="F140" s="24" t="s">
-        <v>1328</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="285" x14ac:dyDescent="0.25">
@@ -9009,7 +9014,7 @@
         <v>1103</v>
       </c>
       <c r="F141" s="24" t="s">
-        <v>1329</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9029,7 +9034,7 @@
         <v>1104</v>
       </c>
       <c r="F142" s="24" t="s">
-        <v>1330</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="195" x14ac:dyDescent="0.25">
@@ -9049,7 +9054,7 @@
         <v>1105</v>
       </c>
       <c r="F143" s="24" t="s">
-        <v>1331</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="390" x14ac:dyDescent="0.25">
@@ -9069,7 +9074,7 @@
         <v>1106</v>
       </c>
       <c r="F144" s="24" t="s">
-        <v>1332</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="270" x14ac:dyDescent="0.25">
@@ -9089,7 +9094,7 @@
         <v>1107</v>
       </c>
       <c r="F145" s="24" t="s">
-        <v>1333</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="240" x14ac:dyDescent="0.25">
@@ -9109,7 +9114,7 @@
         <v>1108</v>
       </c>
       <c r="F146" s="24" t="s">
-        <v>1334</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -9129,7 +9134,7 @@
         <v>461</v>
       </c>
       <c r="F147" s="24" t="s">
-        <v>1335</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9149,7 +9154,7 @@
         <v>1109</v>
       </c>
       <c r="F148" s="24" t="s">
-        <v>1336</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="180" x14ac:dyDescent="0.25">
@@ -9169,7 +9174,7 @@
         <v>1110</v>
       </c>
       <c r="F149" s="24" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9189,7 +9194,7 @@
         <v>1111</v>
       </c>
       <c r="F150" s="24" t="s">
-        <v>1337</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="151" spans="1:6" s="25" customFormat="1" ht="180" x14ac:dyDescent="0.25">
@@ -9209,7 +9214,7 @@
         <v>474</v>
       </c>
       <c r="F151" s="24" t="s">
-        <v>1338</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9229,7 +9234,7 @@
         <v>1112</v>
       </c>
       <c r="F152" s="24" t="s">
-        <v>1339</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -9249,7 +9254,7 @@
         <v>1113</v>
       </c>
       <c r="F153" s="24" t="s">
-        <v>1254</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9266,10 +9271,10 @@
         <v>880</v>
       </c>
       <c r="E154" s="30" t="s">
-        <v>1114</v>
+        <v>1396</v>
       </c>
       <c r="F154" s="24" t="s">
-        <v>1340</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="240" x14ac:dyDescent="0.25">
@@ -9286,10 +9291,10 @@
         <v>880</v>
       </c>
       <c r="E155" s="30" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F155" s="24" t="s">
-        <v>1341</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9306,10 +9311,10 @@
         <v>7</v>
       </c>
       <c r="E156" s="30" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F156" s="24" t="s">
-        <v>1342</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9326,10 +9331,10 @@
         <v>15</v>
       </c>
       <c r="E157" s="30" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F157" s="24" t="s">
-        <v>1343</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9346,10 +9351,10 @@
         <v>880</v>
       </c>
       <c r="E158" s="30" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F158" s="24" t="s">
-        <v>1344</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="159" spans="1:6" s="25" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
@@ -9366,10 +9371,10 @@
         <v>7</v>
       </c>
       <c r="E159" s="30" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F159" s="24" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9386,10 +9391,10 @@
         <v>880</v>
       </c>
       <c r="E160" s="30" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F160" s="24" t="s">
-        <v>1345</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="195" x14ac:dyDescent="0.25">
@@ -9409,7 +9414,7 @@
         <v>509</v>
       </c>
       <c r="F161" s="24" t="s">
-        <v>1246</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9426,10 +9431,10 @@
         <v>880</v>
       </c>
       <c r="E162" s="30" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F162" s="24" t="s">
-        <v>1346</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9446,10 +9451,10 @@
         <v>880</v>
       </c>
       <c r="E163" s="30" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="F163" s="24" t="s">
-        <v>1347</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9466,10 +9471,10 @@
         <v>880</v>
       </c>
       <c r="E164" s="30" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F164" s="24" t="s">
-        <v>1348</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="195" x14ac:dyDescent="0.25">
@@ -9486,10 +9491,10 @@
         <v>880</v>
       </c>
       <c r="E165" s="30" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F165" s="24" t="s">
-        <v>1349</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9506,10 +9511,10 @@
         <v>7</v>
       </c>
       <c r="E166" s="30" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F166" s="24" t="s">
-        <v>1350</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="390" x14ac:dyDescent="0.25">
@@ -9526,10 +9531,10 @@
         <v>880</v>
       </c>
       <c r="E167" s="30" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F167" s="24" t="s">
-        <v>1351</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="180" x14ac:dyDescent="0.25">
@@ -9546,10 +9551,10 @@
         <v>880</v>
       </c>
       <c r="E168" s="30" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F168" s="24" t="s">
-        <v>1352</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="195" x14ac:dyDescent="0.25">
@@ -9566,10 +9571,10 @@
         <v>1028</v>
       </c>
       <c r="E169" s="30" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F169" s="24" t="s">
-        <v>1353</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="330" x14ac:dyDescent="0.25">
@@ -9586,10 +9591,10 @@
         <v>7</v>
       </c>
       <c r="E170" s="30" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F170" s="24" t="s">
-        <v>1354</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="180" x14ac:dyDescent="0.25">
@@ -9606,10 +9611,10 @@
         <v>15</v>
       </c>
       <c r="E171" s="30" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F171" s="24" t="s">
-        <v>1355</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9626,10 +9631,10 @@
         <v>1028</v>
       </c>
       <c r="E172" s="30" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F172" s="24" t="s">
-        <v>1356</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="173" spans="1:6" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.25">
@@ -9646,10 +9651,10 @@
         <v>15</v>
       </c>
       <c r="E173" s="30" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="F173" s="24" t="s">
-        <v>1357</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="240" x14ac:dyDescent="0.25">
@@ -9666,10 +9671,10 @@
         <v>880</v>
       </c>
       <c r="E174" s="30" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="F174" s="24" t="s">
-        <v>1358</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="210" x14ac:dyDescent="0.25">
@@ -9686,10 +9691,10 @@
         <v>15</v>
       </c>
       <c r="E175" s="18" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="F175" s="19" t="s">
-        <v>1359</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9706,10 +9711,10 @@
         <v>7</v>
       </c>
       <c r="E176" s="30" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F176" s="24" t="s">
-        <v>1360</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="150" x14ac:dyDescent="0.25">
@@ -9726,10 +9731,10 @@
         <v>7</v>
       </c>
       <c r="E177" s="30" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F177" s="24" t="s">
-        <v>1361</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9746,10 +9751,10 @@
         <v>1028</v>
       </c>
       <c r="E178" s="30" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F178" s="24" t="s">
-        <v>1362</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9766,10 +9771,10 @@
         <v>1028</v>
       </c>
       <c r="E179" s="30" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F179" s="24" t="s">
-        <v>1363</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="255" x14ac:dyDescent="0.25">
@@ -9786,10 +9791,10 @@
         <v>7</v>
       </c>
       <c r="E180" s="30" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="F180" s="24" t="s">
-        <v>1364</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="270" x14ac:dyDescent="0.25">
@@ -9806,10 +9811,10 @@
         <v>880</v>
       </c>
       <c r="E181" s="30" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="F181" s="24" t="s">
-        <v>1365</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9826,10 +9831,10 @@
         <v>15</v>
       </c>
       <c r="E182" s="30" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="F182" s="24" t="s">
-        <v>1366</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9846,10 +9851,10 @@
         <v>880</v>
       </c>
       <c r="E183" s="30" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F183" s="24" t="s">
-        <v>1367</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="195" x14ac:dyDescent="0.25">
@@ -9866,10 +9871,10 @@
         <v>15</v>
       </c>
       <c r="E184" s="30" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F184" s="24" t="s">
-        <v>1368</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="185" spans="1:6" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
@@ -9886,10 +9891,10 @@
         <v>880</v>
       </c>
       <c r="E185" s="30" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F185" s="24" t="s">
-        <v>1369</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9906,10 +9911,10 @@
         <v>1028</v>
       </c>
       <c r="E186" s="30" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F186" s="24" t="s">
-        <v>1370</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9926,10 +9931,10 @@
         <v>7</v>
       </c>
       <c r="E187" s="18" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F187" s="19" t="s">
-        <v>1371</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9946,10 +9951,10 @@
         <v>1028</v>
       </c>
       <c r="E188" s="30" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F188" s="24" t="s">
-        <v>1372</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9966,10 +9971,10 @@
         <v>1028</v>
       </c>
       <c r="E189" s="30" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F189" s="24" t="s">
-        <v>1373</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="165" x14ac:dyDescent="0.25">
@@ -9986,10 +9991,10 @@
         <v>880</v>
       </c>
       <c r="E190" s="30" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F190" s="24" t="s">
-        <v>1239</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="330" x14ac:dyDescent="0.25">
@@ -10006,10 +10011,10 @@
         <v>1028</v>
       </c>
       <c r="E191" s="30" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F191" s="24" t="s">
-        <v>1374</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="135" x14ac:dyDescent="0.25">
@@ -10026,10 +10031,10 @@
         <v>1028</v>
       </c>
       <c r="E192" s="30" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F192" s="24" t="s">
-        <v>1375</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -10046,10 +10051,10 @@
         <v>1028</v>
       </c>
       <c r="E193" s="30" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F193" s="24" t="s">
-        <v>1376</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -10069,7 +10074,7 @@
         <v>612</v>
       </c>
       <c r="F194" s="24" t="s">
-        <v>1377</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -10086,10 +10091,10 @@
         <v>1028</v>
       </c>
       <c r="E195" s="30" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F195" s="24" t="s">
-        <v>1378</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="135" x14ac:dyDescent="0.25">
@@ -10106,10 +10111,10 @@
         <v>15</v>
       </c>
       <c r="E196" s="30" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F196" s="24" t="s">
-        <v>1379</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="270" x14ac:dyDescent="0.25">
@@ -10126,10 +10131,10 @@
         <v>7</v>
       </c>
       <c r="E197" s="30" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="F197" s="24" t="s">
-        <v>1380</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="270" x14ac:dyDescent="0.25">
@@ -10146,10 +10151,10 @@
         <v>15</v>
       </c>
       <c r="E198" s="30" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="F198" s="24" t="s">
-        <v>1381</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="315" x14ac:dyDescent="0.25">
@@ -10166,10 +10171,10 @@
         <v>1028</v>
       </c>
       <c r="E199" s="30" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="F199" s="24" t="s">
-        <v>1239</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -10189,7 +10194,7 @@
         <v>631</v>
       </c>
       <c r="F200" s="24" t="s">
-        <v>1382</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="315" x14ac:dyDescent="0.25">
@@ -10206,10 +10211,10 @@
         <v>880</v>
       </c>
       <c r="E201" s="30" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="F201" s="24" t="s">
-        <v>1383</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -10229,7 +10234,7 @@
         <v>638</v>
       </c>
       <c r="F202" s="24" t="s">
-        <v>1384</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -10246,10 +10251,10 @@
         <v>15</v>
       </c>
       <c r="E203" s="30" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="F203" s="24" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="210" x14ac:dyDescent="0.25">
@@ -10269,7 +10274,7 @@
         <v>645</v>
       </c>
       <c r="F204" s="24" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -10286,10 +10291,10 @@
         <v>880</v>
       </c>
       <c r="E205" s="30" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="F205" s="24" t="s">
-        <v>1386</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="210" x14ac:dyDescent="0.25">
@@ -10306,10 +10311,10 @@
         <v>7</v>
       </c>
       <c r="E206" s="30" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F206" s="24" t="s">
-        <v>1387</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="390" x14ac:dyDescent="0.25">
@@ -10326,10 +10331,10 @@
         <v>7</v>
       </c>
       <c r="E207" s="30" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="F207" s="24" t="s">
-        <v>1388</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -10346,10 +10351,10 @@
         <v>880</v>
       </c>
       <c r="E208" s="30" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="F208" s="24" t="s">
-        <v>1389</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -10366,10 +10371,10 @@
         <v>880</v>
       </c>
       <c r="E209" s="30" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="F209" s="24" t="s">
-        <v>1390</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="165" x14ac:dyDescent="0.25">
@@ -10386,10 +10391,10 @@
         <v>15</v>
       </c>
       <c r="E210" s="30" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="F210" s="24" t="s">
-        <v>1391</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -10406,10 +10411,10 @@
         <v>1028</v>
       </c>
       <c r="E211" s="30" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="F211" s="24" t="s">
-        <v>1392</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="135" x14ac:dyDescent="0.25">
@@ -10429,7 +10434,7 @@
         <v>670</v>
       </c>
       <c r="F212" s="24" t="s">
-        <v>1393</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="390" x14ac:dyDescent="0.25">
@@ -10446,10 +10451,10 @@
         <v>1028</v>
       </c>
       <c r="E213" s="30" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="F213" s="24" t="s">
-        <v>1394</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -10469,7 +10474,7 @@
         <v>677</v>
       </c>
       <c r="F214" s="24" t="s">
-        <v>1395</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -10486,10 +10491,10 @@
         <v>7</v>
       </c>
       <c r="E215" s="30" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="F215" s="24" t="s">
-        <v>1396</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -10509,7 +10514,7 @@
         <v>684</v>
       </c>
       <c r="F216" s="24" t="s">
-        <v>1397</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="225" x14ac:dyDescent="0.25">
@@ -10526,10 +10531,10 @@
         <v>880</v>
       </c>
       <c r="E217" s="30" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="F217" s="24" t="s">
-        <v>1239</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="195" x14ac:dyDescent="0.25">
@@ -10546,10 +10551,10 @@
         <v>7</v>
       </c>
       <c r="E218" s="30" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F218" s="24" t="s">
-        <v>1398</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -10566,10 +10571,10 @@
         <v>7</v>
       </c>
       <c r="E219" s="30" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="F219" s="24" t="s">
-        <v>1399</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -10586,10 +10591,10 @@
         <v>7</v>
       </c>
       <c r="E220" s="31" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="F220" s="24" t="s">
-        <v>1400</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -10606,10 +10611,10 @@
         <v>1028</v>
       </c>
       <c r="E221" s="30" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="F221" s="24" t="s">
-        <v>1401</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="390" x14ac:dyDescent="0.25">
@@ -10626,10 +10631,10 @@
         <v>7</v>
       </c>
       <c r="E222" s="30" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F222" s="24" t="s">
-        <v>1402</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="135" x14ac:dyDescent="0.25">
@@ -10646,10 +10651,10 @@
         <v>15</v>
       </c>
       <c r="E223" s="30" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="F223" s="24" t="s">
-        <v>1403</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="240" x14ac:dyDescent="0.25">
@@ -10666,10 +10671,10 @@
         <v>15</v>
       </c>
       <c r="E224" s="30" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F224" s="24" t="s">
-        <v>1404</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="300" x14ac:dyDescent="0.25">
@@ -10686,10 +10691,10 @@
         <v>880</v>
       </c>
       <c r="E225" s="30" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="F225" s="24" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="360" x14ac:dyDescent="0.25">
@@ -10706,10 +10711,10 @@
         <v>7</v>
       </c>
       <c r="E226" s="30" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="F226" s="24" t="s">
-        <v>1406</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -10726,7 +10731,7 @@
         <v>7</v>
       </c>
       <c r="E227" s="30" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F227" s="24" t="s">
         <v>1407</v>
@@ -10746,10 +10751,10 @@
         <v>880</v>
       </c>
       <c r="E228" s="30" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F228" s="24" t="s">
-        <v>1239</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -10769,7 +10774,7 @@
         <v>147</v>
       </c>
       <c r="F229" s="24" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="180" x14ac:dyDescent="0.25">
@@ -10786,10 +10791,10 @@
         <v>880</v>
       </c>
       <c r="E230" s="30" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F230" s="24" t="s">
-        <v>1409</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="270" x14ac:dyDescent="0.25">
@@ -10806,10 +10811,10 @@
         <v>15</v>
       </c>
       <c r="E231" s="30" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="F231" s="24" t="s">
-        <v>1410</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -10829,7 +10834,7 @@
         <v>733</v>
       </c>
       <c r="F232" s="24" t="s">
-        <v>1411</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="150" x14ac:dyDescent="0.25">
@@ -10849,7 +10854,7 @@
         <v>737</v>
       </c>
       <c r="F233" s="24" t="s">
-        <v>1268</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -10869,7 +10874,7 @@
         <v>741</v>
       </c>
       <c r="F234" s="24" t="s">
-        <v>1412</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="270" x14ac:dyDescent="0.25">
@@ -10889,7 +10894,7 @@
         <v>745</v>
       </c>
       <c r="F235" s="24" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -10906,10 +10911,10 @@
         <v>880</v>
       </c>
       <c r="E236" s="30" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F236" s="24" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -10926,10 +10931,10 @@
         <v>7</v>
       </c>
       <c r="E237" s="30" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F237" s="24" t="s">
-        <v>1414</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="195" x14ac:dyDescent="0.25">
@@ -10946,10 +10951,10 @@
         <v>1028</v>
       </c>
       <c r="E238" s="30" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F238" s="24" t="s">
-        <v>1415</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="150" x14ac:dyDescent="0.25">
@@ -10966,10 +10971,10 @@
         <v>7</v>
       </c>
       <c r="E239" s="30" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F239" s="24" t="s">
-        <v>1416</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="165" x14ac:dyDescent="0.25">
@@ -10986,10 +10991,10 @@
         <v>7</v>
       </c>
       <c r="E240" s="30" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="F240" s="24" t="s">
-        <v>1417</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -11006,10 +11011,10 @@
         <v>880</v>
       </c>
       <c r="E241" s="30" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="F241" s="24" t="s">
-        <v>1418</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="285" x14ac:dyDescent="0.25">
@@ -11026,10 +11031,10 @@
         <v>7</v>
       </c>
       <c r="E242" s="30" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F242" s="24" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="345" x14ac:dyDescent="0.25">
@@ -11046,10 +11051,10 @@
         <v>880</v>
       </c>
       <c r="E243" s="30" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="F243" s="24" t="s">
-        <v>1420</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -11063,13 +11068,13 @@
         <v>772</v>
       </c>
       <c r="D244" s="6" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E244" s="30" t="s">
         <v>1193</v>
       </c>
-      <c r="E244" s="30" t="s">
-        <v>1194</v>
-      </c>
       <c r="F244" s="24" t="s">
-        <v>1421</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="225" x14ac:dyDescent="0.25">
@@ -11086,203 +11091,203 @@
         <v>7</v>
       </c>
       <c r="E245" s="30" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="F245" s="24" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C246"/>
       <c r="E246"/>
       <c r="F246"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C247"/>
       <c r="E247"/>
       <c r="F247"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C248"/>
       <c r="E248"/>
       <c r="F248"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C249"/>
       <c r="E249"/>
       <c r="F249"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C250"/>
       <c r="E250"/>
       <c r="F250"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C251"/>
       <c r="E251"/>
       <c r="F251"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C252"/>
       <c r="E252"/>
       <c r="F252"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C253"/>
       <c r="E253"/>
       <c r="F253"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C254"/>
       <c r="E254"/>
       <c r="F254"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C255"/>
       <c r="E255"/>
       <c r="F255"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C256"/>
       <c r="E256"/>
       <c r="F256"/>
     </row>
-    <row r="257" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C257"/>
       <c r="E257"/>
       <c r="F257"/>
     </row>
-    <row r="258" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C258"/>
       <c r="E258"/>
       <c r="F258"/>
     </row>
-    <row r="259" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C259"/>
       <c r="E259"/>
       <c r="F259"/>
     </row>
-    <row r="260" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C260"/>
       <c r="E260"/>
       <c r="F260"/>
     </row>
-    <row r="261" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C261"/>
       <c r="E261"/>
       <c r="F261"/>
     </row>
-    <row r="262" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C262"/>
       <c r="E262"/>
       <c r="F262"/>
     </row>
-    <row r="263" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C263"/>
       <c r="E263"/>
       <c r="F263"/>
     </row>
-    <row r="264" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C264"/>
       <c r="E264"/>
       <c r="F264"/>
     </row>
-    <row r="265" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C265"/>
       <c r="E265"/>
       <c r="F265"/>
     </row>
-    <row r="266" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C266"/>
       <c r="E266"/>
       <c r="F266"/>
     </row>
-    <row r="267" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C267"/>
       <c r="E267"/>
       <c r="F267"/>
     </row>
-    <row r="268" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C268"/>
       <c r="E268"/>
       <c r="F268"/>
     </row>
-    <row r="269" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C269"/>
       <c r="E269"/>
       <c r="F269"/>
     </row>
-    <row r="270" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C270"/>
       <c r="E270"/>
       <c r="F270"/>
     </row>
-    <row r="271" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C271"/>
       <c r="E271"/>
       <c r="F271"/>
     </row>
-    <row r="272" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C272"/>
       <c r="E272"/>
       <c r="F272"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C273"/>
       <c r="E273"/>
       <c r="F273"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C274"/>
       <c r="E274"/>
       <c r="F274"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C275"/>
       <c r="E275"/>
       <c r="F275"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C276"/>
       <c r="E276"/>
       <c r="F276"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C277"/>
       <c r="E277"/>
       <c r="F277"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C278"/>
       <c r="E278"/>
       <c r="F278"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C279"/>
       <c r="E279"/>
       <c r="F279"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C280"/>
       <c r="E280"/>
       <c r="F280"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C281"/>
       <c r="E281"/>
       <c r="F281"/>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C282"/>
       <c r="E282"/>
       <c r="F282"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C283"/>
       <c r="E283"/>
       <c r="F283"/>
     </row>
-    <row r="284" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284"/>
       <c r="B284"/>
       <c r="C284"/>
@@ -11290,17 +11295,17 @@
       <c r="E284"/>
       <c r="F284"/>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C285"/>
       <c r="E285"/>
       <c r="F285"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C286"/>
       <c r="E286"/>
       <c r="F286"/>
     </row>
-    <row r="287" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287"/>
       <c r="B287"/>
       <c r="C287"/>
@@ -11308,37 +11313,37 @@
       <c r="E287"/>
       <c r="F287"/>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C288"/>
       <c r="E288"/>
       <c r="F288"/>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C289"/>
       <c r="E289"/>
       <c r="F289"/>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C290"/>
       <c r="E290"/>
       <c r="F290"/>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C291"/>
       <c r="E291"/>
       <c r="F291"/>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C292"/>
       <c r="E292"/>
       <c r="F292"/>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C293"/>
       <c r="E293"/>
       <c r="F293"/>
     </row>
-    <row r="294" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294"/>
       <c r="B294"/>
       <c r="C294"/>
@@ -11346,72 +11351,72 @@
       <c r="E294"/>
       <c r="F294"/>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C295"/>
       <c r="E295"/>
       <c r="F295"/>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C296"/>
       <c r="E296"/>
       <c r="F296"/>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C297"/>
       <c r="E297"/>
       <c r="F297"/>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C298"/>
       <c r="E298"/>
       <c r="F298"/>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C299"/>
       <c r="E299"/>
       <c r="F299"/>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C300"/>
       <c r="E300"/>
       <c r="F300"/>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C301"/>
       <c r="E301"/>
       <c r="F301"/>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C302"/>
       <c r="E302"/>
       <c r="F302"/>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C303"/>
       <c r="E303"/>
       <c r="F303"/>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C304"/>
       <c r="E304"/>
       <c r="F304"/>
     </row>
-    <row r="305" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C305"/>
       <c r="E305"/>
       <c r="F305"/>
     </row>
-    <row r="306" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C306"/>
       <c r="E306"/>
       <c r="F306"/>
     </row>
-    <row r="307" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C307"/>
       <c r="E307"/>
       <c r="F307"/>
     </row>
-    <row r="308" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C308"/>
       <c r="E308"/>
       <c r="F308"/>
@@ -11437,7 +11442,13 @@
       <c r="F312"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F308" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F308" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11449,10 +11460,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12375,6 +12386,14 @@
         <v>1021</v>
       </c>
     </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1379</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/SMC Challenge 6/eligibility criteria/Dataset1_Prior_Therapy_Trials_First.xlsx
+++ b/SMC Challenge 6/eligibility criteria/Dataset1_Prior_Therapy_Trials_First.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB571ED-BB1D-45BE-92B9-72E2C3AEE0AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DC8E0C-9622-4374-BBF4-AF2B3EA69C08}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="1425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="1424">
   <si>
     <t>nci_id</t>
   </si>
@@ -5038,19 +5038,12 @@
     <t>(C16169=0 or (C16169=1))  and C16171=0 and C15477=0 and C16175=0 and (C16124=1 and C15187=0)</t>
   </si>
   <si>
-    <t>(C16171=0 or (C16171=1=C9509) and C15477=0</t>
-  </si>
-  <si>
     <t xml:space="preserve">C15477=1  </t>
   </si>
   <si>
     <t>C16171=1 or (C16124=1 and C15187=1)</t>
   </si>
   <si>
-    <t xml:space="preserve">(C16171=0 or C16171=1 and C94764=0 and C4822=0)) and ((C15477=0 or (C15477=1 and C94764=0 and C4822=0))
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">(C16171=0 or (C16171=1 and C12468=0)) and (C16124=1 and C15187=0 or (C16124=1 and C15187=1 and C12468=0)) and (C15477=0 or (C15477=1 and C25389=1 and C2926=0) or (C15477=1 and C25389=0 and C2926=0))  </t>
   </si>
   <si>
@@ -5090,13 +5083,7 @@
     <t>(C16171=0 and C15477=0 and C16168=0 and (C16124=1 and C15187=0)) and (C16169=1 or C16169=0)</t>
   </si>
   <si>
-    <t>(C16169=0 or C16169=1) and (C15477=0 or (C15477=1 and (C16124=1 and (C26653=0 or (C26653=1 and C25456=0))))</t>
-  </si>
-  <si>
     <t>C16124=1 and C50646=0</t>
-  </si>
-  <si>
-    <t>(C16124=1 and C2201=0 and (C49135=0 or C49135=1)) (C16171=0 or C16171=1) and C60701=0</t>
   </si>
   <si>
     <t>C16171=0 and (C15477=0 or (C15477=1 and (C43260=1 or C3380=1)))</t>
@@ -5130,9 +5117,6 @@
 </t>
   </si>
   <si>
-    <t>C16171 0 or C16171=1) C15451=0</t>
-  </si>
-  <si>
     <t>(C16169=1) and (C16171=0 or (C16171=1 and C12426=0)) and (C15477=0 or (C15477=1 and C54225))</t>
   </si>
   <si>
@@ -5161,12 +5145,6 @@
   </si>
   <si>
     <t>C16171=1 or C15477=1 or (C16124=1 and C15187=1)</t>
-  </si>
-  <si>
-    <t>(C16169=0 or C16169=1) and (C16171=1) and (C16175=0 or C16175=1) and (C16124=1 and (C143099=0 and C93259=0 and C52200=0)</t>
-  </si>
-  <si>
-    <t>((C16124=1 and C15288=1) or C15445=1) and (C16175=0 or C16175=1) and (C15477=0 or C15477=1) and (C16171=0 or C16171=1) and (C16168=0 or C16168=1 and (C16124=1 and C49135=0))) and (C16124=1 and (C15187=0 or C15187=1))</t>
   </si>
   <si>
     <t>(C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16169=0 or  C16169=1) and (C16124=1 and (C15187=0 or C15187=1))</t>
@@ -5203,9 +5181,6 @@
     <t>(C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16124=1 and (C49135=0 or C49135=1)) and (C16169=0 or C16169=1) and (C16124=1 and (C15187=0 or C15187=1))</t>
   </si>
   <si>
-    <t>C16171=0 or C16171=1) and (C16124=1 and (C15187=0 or C15187=1)) and (C16168=0 or C16168=1)</t>
-  </si>
-  <si>
     <t>C16171=1 or C15477=1 or C16169=1 or (C16124=1 and C15187=1)  or (C16124=1 and C49135=1)</t>
   </si>
   <si>
@@ -5224,9 +5199,6 @@
     <t>(C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16168=0 or C16168=1) and (C16124=1 and (C15187=0 or C15187=1))</t>
   </si>
   <si>
-    <t>(C16171=0 or (C16171=1 and C2926=0)) and (C15477=0 or (C15477=1) and C2926=0))</t>
-  </si>
-  <si>
     <t>(C16168=0 or C16168=1) and (C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16124=1 and (C41161=0 or C41161=1))</t>
   </si>
   <si>
@@ -5248,9 +5220,6 @@
     <t>(C15477=0 or (C15477=1 and C1244=1)) and (C16171=0 and (C16124=1 and C15187=0) and C16168=0) or (C16124=1 and C125103=1)</t>
   </si>
   <si>
-    <t>(C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16169=0 or  C16169=1) and (C16124=1 and (C66876=0 or (C66876=1 and C38155=0))</t>
-  </si>
-  <si>
     <t>(C15477=1 or C16171=1) and (C16124=1 and (C2201=0 or (C2201=1 and C4815=0)))</t>
   </si>
   <si>
@@ -5263,15 +5232,9 @@
     <t>(C15477=1 or C16171=1 or (C16124=1 and C49135=1)) and (C16124=1 and C2167=0)</t>
   </si>
   <si>
-    <t>(C16124=0 or (C16124=1 and C8336=1 and C43362=0) or (C16124=1 and C8336=0 and C43362=0) or (C16124=1 and C8336=0 and C43362=1)</t>
-  </si>
-  <si>
     <t>C16171=1 and (C16124=1 and C62554=0)</t>
   </si>
   <si>
-    <t>C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16168=0 or C16168=1) and (C16124=1 and (C15187=0 or C15187=1) and (C16175=0 or C16175=1)</t>
-  </si>
-  <si>
     <t>(C16171=0 or (C16171=1 and C408=1 and C15750=1)) and (C15477=0 or (C15477=1 and C25389=1))</t>
   </si>
   <si>
@@ -5288,9 +5251,6 @@
   </si>
   <si>
     <t>C16124=1 and (C2487=0 and C62722=0 and C38231=0)</t>
-  </si>
-  <si>
-    <t>(C16171=0 or C16171=1) and (C16124=1 and (C49135=0 or C49135=1) and (C16175=0 or  C16175=1) and (C16124=1 and (C15187=0 or C15187=1)) and (C15477=0 or C15477=1)</t>
   </si>
   <si>
     <t>((C16124=1 and C15370=0) or (16124=1 and C15370=1 and C3058=1)) and (C16171=1 or C15477=1 or C16169=1 or (C16124=1 and C49135=1))</t>
@@ -5327,9 +5287,6 @@
     <t>(C16171=0 or C16171=1) and (C16169=0 or C16169=1) and (C15477=0 or C15477=1) and (C16124=1 and (C15187=0 or C15187=1)) and (C16124=1 and ((C49135=0 or C49135=1) and C130200=0))</t>
   </si>
   <si>
-    <t>(C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16124=1 and ((C2167=0 or (C2167=1 and C15675=0 and C19151=0)))</t>
-  </si>
-  <si>
     <t>C130200=0 and C16124=1 and (C16124=1 and C102546=0)</t>
   </si>
   <si>
@@ -5345,33 +5302,15 @@
     <t xml:space="preserve">(C15477=0 or C15477=1) and (C16171=0 or C16171=1) </t>
   </si>
   <si>
-    <t>(C16124=1 and (C143250=0 and  T-cell co-stimulator=0)) and (C15477=1 or C15477=0) and (C16169=0 or C16169=1) and (C16168=0 or C16168=1) and (C16171=0 or C16171=1) and (C16124=1 and (C49135=0 or C49135=1)) and (C16124=1 and (C15187=0 or C15187=1)) and (C16124=1 and (C15194=0 or C15194=1))</t>
-  </si>
-  <si>
-    <t>(C16124=1 and (C78449=0 and C122637=0 and (C49135=0 or C49135=1)) and C16171=0 and (C15477=0 or C15477=1) and (C16168=0 or C16168=1)</t>
-  </si>
-  <si>
     <t>(C16169=0 or C16169=1) and (C16124=1 and (C49135=0 or C49135=1))</t>
   </si>
   <si>
-    <t>(C16171=0 or C16171=1) and (C15477=0 or (C15477=1 and C54225=1)</t>
-  </si>
-  <si>
     <t>C15477=1 and (C16124=1 and (C49135=0 or C49135=1))</t>
   </si>
   <si>
-    <t>C16169=1 and (C15477=1 and C1244=1) and (C16171=0 or C16171=C1244) and (C16168=0 or (C16168=1 and C12439=0)) and (C16124=1 and (C15187=0 or (C15187=1 and C12439=0)) and (C16175=0 or (C16175=1 and C12439=0))</t>
-  </si>
-  <si>
     <t>(C16171=0 or C16171=1) and (C16175=0 or (C16175=1 and C19151=0))</t>
   </si>
   <si>
-    <t>(C16124=1 and (C66939=0 and C69145=0 and (C49135=0 or C49135=1)) and (C16169=0 or C16169=1) and (C16171=0 or C16171=1)</t>
-  </si>
-  <si>
-    <t>(C16124=1 and (C1567=0 and C1220=0 and C1656=0 and C61313=0) and C16171=1</t>
-  </si>
-  <si>
     <t xml:space="preserve">(C16171=0 or C16171=1) and (C15477=0 or C15477=1) </t>
   </si>
   <si>
@@ -5384,9 +5323,6 @@
     <t>C16169=1 or C16171=1 or C15477=1 or C16168=1</t>
   </si>
   <si>
-    <t>(C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16124=1 and (C15187=0 or C15187=1) and (C16124=1 and (C49135=0 or C49135=1))</t>
-  </si>
-  <si>
     <t>(C16171=0 or C16171=1) and (C16175=0 or C16175=1) and (C15477=0 or C15477=1) and (C16169=0 or C16169=1) and (C16124=1 and (C49135=0 or C49135=1))</t>
   </si>
   <si>
@@ -5408,12 +5344,6 @@
     <t xml:space="preserve">C16169=1 or C16171=1 or C15477=1 </t>
   </si>
   <si>
-    <t>(C16171=1 or C16171=0) and (C16175=1 or C16175=0) and (C16124=1 and (C15256=0 and C51590=0) and (C15477=0 or (C15477=1 and C12404=0))</t>
-  </si>
-  <si>
-    <t>(C16169=0 or C16169=1 or C15477=0 or C15477=1 or C16171=0 or C16171=1 or (C16124=1 and (C49135=0 or C49135=1)) and C9005=0</t>
-  </si>
-  <si>
     <t>(C16171=1 or C16169=1) and (C16124=1 and C2167=1)</t>
   </si>
   <si>
@@ -5429,9 +5359,6 @@
     <t>C15477=0 or (C15477=1 and C12418=0)</t>
   </si>
   <si>
-    <t>(C16124=1 and ((C62528=0 and (C126102=0 or (C126102=1 and C78347=0)))) and (C16171=1 or C15477=1)</t>
-  </si>
-  <si>
     <t>C16171=0 or (C16171=1 and C19151=0)</t>
   </si>
   <si>
@@ -5450,16 +5377,9 @@
     <t>(C15477=0 or (C15477=1 and C12439=0)) and (C16171=0 or C16171=1)</t>
   </si>
   <si>
-    <t>C16171=0 and (C15477=0 or (C15477=1 and C12767=0)</t>
-  </si>
-  <si>
     <t>C16169=1</t>
   </si>
   <si>
-    <t xml:space="preserve">C16171=1 and (C15477=0 or C15477=1) and (C16175=0 or C16175=1) and (C16124=1 and (C376=0 and C62554=0) and (C16168=0 or C16168=1) and (C16124=1 and (C15187=0 or C15187=1)) and (C16124=1 and (C49135=0 or C49135=1))
-</t>
-  </si>
-  <si>
     <t>C16171=0 or (C16171=1 and C9385=0)</t>
   </si>
   <si>
@@ -5487,21 +5407,12 @@
     <t>(C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16175=0 or C16175=1) and (C16124=1 and (C49135=0 or C49135=1))</t>
   </si>
   <si>
-    <t>(C16124=1 and (C1794=0 and C505=0 and C607=0 and C1181=0 and C60768=0))</t>
-  </si>
-  <si>
     <t>(C16171=0 or C16171=1) and (C16175=0 or C16175=1) and (C15477=0 or C15477=1)</t>
   </si>
   <si>
     <t>(C16171=0 or (C16171=1 and C9385=0)) and (C15477=0 or (C15477=1 and C9385=0)) and (C49135=0 or (C49135=1 and C9385=0)) and (C16169=0 or (C16169=1 and C9385=0)) and (C16168=0 or (C16168=1 and C9385=0)) and (C16175=0 or (C16175=1 and C9385=0))</t>
   </si>
   <si>
-    <t>(C16171=0 or (C16171=1) and (C15477=0 or C15477=1) and (C16169=0 or C16169=1) and (C16124=1 and (C15187=0 or C15187=1)) and (C16124=1 and (C49135=0 or C49135=1))</t>
-  </si>
-  <si>
-    <t>(C16124=1 and ((C298=0 or (C298=1 and C13415=0))) and (C16169=0 or C16169=1)</t>
-  </si>
-  <si>
     <t>(C16171=0 or (C16171=1 and C9005=0)) and (C15477=0 or (C15477=1 and C9005=0))</t>
   </si>
   <si>
@@ -5541,12 +5452,6 @@
     <t>(C16124=1 and C90903=0 and C143250=0 and  C90904=0 and C69145=0) and (C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16168=0 or  C16168=1) and (C16124=1 and (C15187=0 or C15187=1))</t>
   </si>
   <si>
-    <t>(C16171=0 or (C16171=1 and C19151=0)) and (C16168=0 or (C16168=1 and C19151=0)) and (C16124=1 and (C49135=0 or (C49135=1 and C19151=0))) and (C15477=0 or C15477=1) and (C16169=0 or C16169=1) and (C16124=1 and (C128036=0 and C124946=0 and C90904=0 and C69145=0)</t>
-  </si>
-  <si>
-    <t>(C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16168=0 or C16168=1) and (C16124=1 and (C15370=0 or C15370=1) and (C16124=1 and (C15187=0 or C15187=1)) and (C16124=1 and (C49135=0 or C49135=1)) and (C16124=1 and (C90904=0 or (C90904=1 and C82386=1)) and (C69145=0 or (C69145=1 and C77908=1)))</t>
-  </si>
-  <si>
     <t>C15477=1 or C16169=1 or (C16124=1 and C15187=1) or (16124=1 and C49135=1)</t>
   </si>
   <si>
@@ -5556,16 +5461,7 @@
     <t>(C16171=1 or C15477=1) and (C16124=1 and C2201=0)</t>
   </si>
   <si>
-    <t>(C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16124=1 and (C143250=0 and  C90903=0)</t>
-  </si>
-  <si>
     <t>(C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16124=1 and (C143250=0 and  C90903=0))</t>
-  </si>
-  <si>
-    <t>(C16171=0 or C16171=1) and (C16124=1 and (C15187=0 or C15187=1)) and (C15477=0 or C15477=1) and (C16124=1 and (C49135=0 or C49135=1) and C143250=0 and  C90903=0))</t>
-  </si>
-  <si>
-    <t>(C16124=1 and (C41161=0 or C41161=1)) and (C16168=0 or C16168=1) and (C16124=1 and (C90907=0 and C2682=0 and C143250=0 and  C90903=0)</t>
   </si>
   <si>
     <t>Patients who have received prior chemotherapy for any abdominal or pelvic tumor OTHER THAN for the treatment of ovarian, fallopian tube, or primary peritoneal cancer within the last three years are excluded; patients may have received prior adjuvant chemotherapy and radiotherapy for localized breast cancer, provided that it was completed more than 2 years prior to registration, and the patient remains free of recurrent or metastatic disease and hormonal therapy has been discontinued; patients who have received prior radiotherapy to any portion of the abdominal cavity or pelvis or thoracic cavity within the last three years are excluded; prior radiation for localized cancer of the head and neck or skin is permitted, provided that it was completed more than three years prior to registration, and the patient remains free of recurrent or metastatic disease
@@ -5602,9 +5498,6 @@
 Patients must have at least one â€œtargetâ€ lesion to be used to assess response on this protocol as defined by RECIST 1.1; tumors within a previously irradiated field will be designated as â€œnon-targetâ€ lesions unless progression is documented or a biopsy is obtained to confirm persistence at least 90 days following completion of radiation therapy</t>
   </si>
   <si>
-    <t>(C15477=1 or C16171=1 or C16175=1 or C16169=1) and (C16124=1 and (C143250=0 and  C90903=0 and C111374=0 and C90908=0 and C90909=0)</t>
-  </si>
-  <si>
     <t>(C16171=0 or C16171=C408) and C15477=0 and (C16124=1 and C909010=0)</t>
   </si>
   <si>
@@ -5617,27 +5510,9 @@
     <t>(C16171=0 or C16171=1) and (C16124=1 and (C49135=0 or C49135=1)) and (C16175=0 or C16175=1) and (C15477=0 or C15477=1) and (C16124=1 and (C85454=0 and C909013=0))</t>
   </si>
   <si>
-    <t>(C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16168=0 or C16168=1) and (C16124=1 and (C81934=0 and C909014=0)</t>
-  </si>
-  <si>
-    <t>(C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16124=1 and (C15289=0 and C909015=0 and C90902=0)</t>
-  </si>
-  <si>
     <t>C147925=0 and (C16124=1 and (C90902=0 and C124946=0 and C909015=0)) and (C16171=0 or C16171=1) and (C15477=0 or C15477=1)</t>
   </si>
   <si>
-    <t>(C15477=0 or C15477=1) and (C16124=1 and (C1946=0 or (C1946=1 and C94764=0) and (C909016=0 or (C909016=1 and C94764=0) and (C909013=0 or (C909013=1 and C94764=0) and (C49135=0 or C49135=1)) and (C16124=1 (C15187=0 or C15187=1)) and (C16168=0 or C16168=1)</t>
-  </si>
-  <si>
-    <t>(C16124=1 and (C74547=0 and C909017=0 and C2201=0 and C90906=0 and C909018)=0)) and C16171=1</t>
-  </si>
-  <si>
-    <t>(C16171=1 and C1450=1 and C191=1) and (C16124 and (C15187=0 or C15187=1) and (C16124=1 and ((C49135=0 or C49135=1) and C1526=0 and C69145=0 and C909019=0) and (C16169=0 or C16169=1) and (C15477=0 or (C15477=1 and C54225=1)) and (C16124=1 and (C143250=0 and C90903=0))</t>
-  </si>
-  <si>
-    <t>(C16124=1 and C909019=0) and C15477=1 and (C16175=0 or C16175=1) and (C16124=1 and (C15187=0 or C15187=1) and (C16168=0 or C16168=1)</t>
-  </si>
-  <si>
     <t>(C16169=0 or C16169=1)</t>
   </si>
   <si>
@@ -5657,9 +5532,6 @@
   </si>
   <si>
     <t>(C16124=1 and (C909024=0 and (C66876=0 or (C66876=1 and C15756=0)))) and (C16175=0 or C16175=1) and (C16171=0 or C16171=1)</t>
-  </si>
-  <si>
-    <t>(C16168=0 or C16168=1) and (C16124=1 and (C15187=0 or C15187=1)) and (C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16124=1 and ((C49135=0 0R C49135=1) and C90902=0 and C124946=0 and C128036=0))</t>
   </si>
   <si>
     <t>(C16169=0 or C16169=1) and C90901=0 and (C15477=0 or (C15477=1 and C54225=1)) and (C16171=0 or C16171=1) and (C16124=1 and (C49135=0 or C49135=1))</t>
@@ -5685,6 +5557,131 @@
   </si>
   <si>
     <t>(C16171=0 or (C16171=1 and C3794=0)) and (C16124=1 and (C15187=0 or (C15187=1 and C3794=0)))</t>
+  </si>
+  <si>
+    <t>C16171=0 or (C16171=1 and C15477=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(C16171=0 or (C16171=1 and C94764=0 and C4822=0)) and (C15477=0 or (C15477=1 and C94764=0 and C4822=0))
+</t>
+  </si>
+  <si>
+    <t>(C16169=0 or C16169=1) and (C15477=0 or (C15477=1 and (C16124=1 and (C26653=0 or (C26653=1 and C25456=0)))))</t>
+  </si>
+  <si>
+    <t>(C16124=1 and C2201=0 and (C49135=0 or C49135=1)) and (C16171=0 or C16171=1) and C60701=0</t>
+  </si>
+  <si>
+    <t>C16171=0 or (C16171=1 and C15451=0)</t>
+  </si>
+  <si>
+    <t>(C16169=0 or C16169=1) and (C16171=1) and (C16175=0 or C16175=1) and (C16124=1 and (C143099=0 and C93259=0 and C52200=0))</t>
+  </si>
+  <si>
+    <t>((C16124=1 and C15288=1) or C15445=1) and (C16175=0 or C16175=1) and (C15477=0 or C15477=1) and (C16171=0 or C16171=1) and (C16168=0 or C16168=1 and (C16124=1 and C49135=0)) and (C16124=1 and (C15187=0 or C15187=1))</t>
+  </si>
+  <si>
+    <t>(C16171=0 or C16171=1) and (C16124=1 and (C15187=0 or C15187=1)) and (C16168=0 or C16168=1)</t>
+  </si>
+  <si>
+    <t>(C16171=0 or (C16171=1 and C2926=0)) and (C15477=0 or (C15477=1 and C2926=0))</t>
+  </si>
+  <si>
+    <t>(C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16169=0 or  C16169=1) and (C16124=1 and (C66876=0 or (C66876=1 and C38155=0)))</t>
+  </si>
+  <si>
+    <t>(C16124=0 or (C16124=1 and C8336=1 and C43362=0)) or (C16124=1 and C8336=0 and C43362=0) or (C16124=1 and C8336=0 and C43362=1)</t>
+  </si>
+  <si>
+    <t>(C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16168=0 or C16168=1) and C16124=1 and (C15187=0 or C15187=1) and (C16175=0 or C16175=1)</t>
+  </si>
+  <si>
+    <t>(C16171=0 or C16171=1) and (C16124=1 and (C49135=0 or C49135=1)) and (C16175=0 or  C16175=1) and (C16124=1 and (C15187=0 or C15187=1)) and (C15477=0 or C15477=1)</t>
+  </si>
+  <si>
+    <t>(C16171=0 or (C16171=1 and C19151=0)) and (C16168=0 or (C16168=1 and C19151=0)) and (C16124=1 and (C49135=0 or (C49135=1 and C19151=0))) and (C15477=0 or C15477=1) and (C16169=0 or C16169=1) and (C16124=1 and (C128036=0 and C124946=0 and C90904=0 and C69145=0))</t>
+  </si>
+  <si>
+    <t>(C16124=1 and (C41161=0 or C41161=1)) and (C16168=0 or C16168=1) and (C16124=1 and (C90907=0 and C2682=0 and C143250=0 and  C90903=0))</t>
+  </si>
+  <si>
+    <t>(C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16168=0 or C16168=1) and (C16124=1 and (C15370=0 or C15370=1)) and (C16124=1 and (C15187=0 or C15187=1)) and (C16124=1 and (C49135=0 or C49135=1)) and (C16124=1 and (C90904=0 or (C90904=1 and C82386=1)) and (C69145=0 or (C69145=1 and C77908=1)))</t>
+  </si>
+  <si>
+    <t>(C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16124=1 and ((C2167=0 or (C2167=1 and C15675=0 and C19151=0))))</t>
+  </si>
+  <si>
+    <t>(C15477=1 or C16171=1 or C16175=1 or C16169=1) and (C16124=1 and (C143250=0 and  C90903=0 and C111374=0 and C90908=0 and C90909=0))</t>
+  </si>
+  <si>
+    <t>(C16124=1 and (C143250=0 and  C909003=0)) and (C15477=1 or C15477=0) and (C16169=0 or C16169=1) and (C16168=0 or C16168=1) and (C16171=0 or C16171=1) and (C16124=1 and (C49135=0 or C49135=1)) and (C16124=1 and (C15187=0 or C15187=1)) and (C16124=1 and (C15194=0 or C15194=1))</t>
+  </si>
+  <si>
+    <t>(C16124=1 and (C78449=0 and C122637=0 and (C49135=0 or C49135=1))) and C16171=0 and (C15477=0 or C15477=1) and (C16168=0 or C16168=1)</t>
+  </si>
+  <si>
+    <t>(C16171=0 or C16171=1) and (C15477=0 or (C15477=1 and C54225=1))</t>
+  </si>
+  <si>
+    <t>(C16168=0 or C16168=1) and (C16124=1 and (C15187=0 or C15187=1)) and (C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16124=1 and ((C49135=0 or C49135=1) and C90902=0 and C124946=0 and C128036=0))</t>
+  </si>
+  <si>
+    <t>C16169=1 and (C15477=1 and C1244=1) and (C16171=0 or C16171=C1244) and (C16168=0 or (C16168=1 and C12439=0)) and (C16124=1 and (C15187=0 or (C15187=1 and C12439=0)) and (C16175=0 or (C16175=1 and C12439=0)))</t>
+  </si>
+  <si>
+    <t>C16124=1 and (C66939=0 and C69145=0 and (C49135=0 or C49135=1)) and (C16169=0 or C16169=1) and (C16171=0 or C16171=1)</t>
+  </si>
+  <si>
+    <t>(C16171=0 or C16171=1) and (C16124=1 and (C15187=0 or C15187=1)) and (C15477=0 or C15477=1) and (C16124=1 and (C49135=0 or C49135=1) and C143250=0 and  C90903=0)</t>
+  </si>
+  <si>
+    <t>C16124=1 and (C1567=0 and C1220=0 and C1656=0 and C61313=0) and C16171=1</t>
+  </si>
+  <si>
+    <t>(C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16124=1 and (C15187=0 or C15187=1) and (C16124=1 and (C49135=0 or C49135=1)))</t>
+  </si>
+  <si>
+    <t>(C16171=1 or C16171=0) and (C16175=1 or C16175=0) and (C16124=1 and (C15256=0 and C51590=0) and (C15477=0 or (C15477=1 and C12404=0)))</t>
+  </si>
+  <si>
+    <t>C16169=0 or C16169=1 or C15477=0 or C15477=1 or C16171=0 or C16171=1 or (C16124=1 and (C49135=0 or C49135=1)) and C9005=0</t>
+  </si>
+  <si>
+    <t>C16124=1 and (C62528=0 and (C126102=0 or (C126102=1 and C78347=0))) and (C16171=1 or C15477=1)</t>
+  </si>
+  <si>
+    <t>(C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16168=0 or C16168=1) and (C16124=1 and (C81934=0 and C909014=0))</t>
+  </si>
+  <si>
+    <t>(C16171=0 or C16171=1) and (C15477=0 or C15477=1) and (C16124=1 and (C15289=0 and C909015=0 and C90902=0))</t>
+  </si>
+  <si>
+    <t>C16171=0 and (C15477=0 or (C15477=1 and C12767=0))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C16171=1 and (C15477=0 or C15477=1) and (C16175=0 or C16175=1) and (C16124=1 and (C376=0 and C62554=0)) and (C16168=0 or C16168=1) and (C16124=1 and (C15187=0 or C15187=1)) and (C16124=1 and (C49135=0 or C49135=1))
+</t>
+  </si>
+  <si>
+    <t>(C15477=0 or C15477=1) and (C16124=1 and (C1946=0 or (C1946=1 and C94764=0))) and (C909016=0 or (C909016=1 and C94764=0)) and (C909013=0 or (C909013=1 and C94764=0)) and (C49135=0 or C49135=1) and (C16124=1 (C15187=0 or C15187=1)) and (C16168=0 or C16168=1)</t>
+  </si>
+  <si>
+    <t>(C16124=1 and (C74547=0 and C909017=0 and C2201=0 and C90906=0 and C909018)=0) and C16171=1</t>
+  </si>
+  <si>
+    <t>(C16171=1 and C1450=1 and C191=1) and (C16124 and (C15187=0 or C15187=1)) and (C16124=1 and (C49135=0 or C49135=1) and C1526=0 and C69145=0 and C909019=0) and (C16169=0 or C16169=1) and (C15477=0 or (C15477=1 and C54225=1)) and (C16124=1 and (C143250=0 and C90903=0))</t>
+  </si>
+  <si>
+    <t>C16124=1 and (C1794=0 and C505=0 and C607=0 and C1181=0 and C60768=0)</t>
+  </si>
+  <si>
+    <t>(C16124=1 and C909019=0) and C15477=1 and (C16175=0 or C16175=1) and (C16124=1 and (C15187=0 or C15187=1) and (C16168=0 or C16168=1))</t>
+  </si>
+  <si>
+    <t>C16171=0 or (C16171=1) and (C15477=0 or C15477=1) and (C16169=0 or C16169=1) and (C16124=1 and (C15187=0 or C15187=1)) and (C16124=1 and (C49135=0 or C49135=1))</t>
+  </si>
+  <si>
+    <t>(C16124=1 and (C298=0 or (C298=1 and C13415=0))) and (C16169=0 or C16169=1)</t>
   </si>
 </sst>
 </file>
@@ -6196,11 +6193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F239" sqref="F239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6233,7 +6229,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="10" customFormat="1" ht="240" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="10" customFormat="1" ht="240" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>417</v>
       </c>
@@ -6288,7 +6284,7 @@
         <v>1120</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>1418</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="10" customFormat="1" ht="225" x14ac:dyDescent="0.25">
@@ -6406,7 +6402,7 @@
         <v>1198</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>1419</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -6486,7 +6482,7 @@
         <v>864</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>1420</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="225" x14ac:dyDescent="0.25">
@@ -6526,7 +6522,7 @@
         <v>875</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>1421</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="180" x14ac:dyDescent="0.25">
@@ -6546,7 +6542,7 @@
         <v>878</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>1422</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -6606,7 +6602,7 @@
         <v>910</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>1423</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="300" x14ac:dyDescent="0.25">
@@ -6626,7 +6622,7 @@
         <v>1178</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>1424</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -6666,7 +6662,7 @@
         <v>60</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>1221</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="10" customFormat="1" ht="150" x14ac:dyDescent="0.25">
@@ -6706,7 +6702,7 @@
         <v>68</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="405" x14ac:dyDescent="0.25">
@@ -6726,7 +6722,7 @@
         <v>915</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -6746,7 +6742,7 @@
         <v>916</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>1224</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="315" x14ac:dyDescent="0.25">
@@ -6766,10 +6762,10 @@
         <v>917</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="10" customFormat="1" ht="300" hidden="1" x14ac:dyDescent="0.25">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="10" customFormat="1" ht="300" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>78</v>
       </c>
@@ -6804,7 +6800,7 @@
         <v>84</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -6844,7 +6840,7 @@
         <v>1200</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>1380</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="225" x14ac:dyDescent="0.25">
@@ -6864,7 +6860,7 @@
         <v>919</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>1411</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="300" x14ac:dyDescent="0.25">
@@ -6884,7 +6880,7 @@
         <v>920</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -6904,7 +6900,7 @@
         <v>1201</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="165" x14ac:dyDescent="0.25">
@@ -6924,7 +6920,7 @@
         <v>104</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -6944,7 +6940,7 @@
         <v>1202</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="210" x14ac:dyDescent="0.25">
@@ -6964,7 +6960,7 @@
         <v>955</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -7004,10 +7000,10 @@
         <v>985</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>117</v>
       </c>
@@ -7042,7 +7038,7 @@
         <v>124</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -7062,7 +7058,7 @@
         <v>1027</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -7082,10 +7078,10 @@
         <v>1029</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>131</v>
       </c>
@@ -7120,7 +7116,7 @@
         <v>1033</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="10" customFormat="1" ht="195" x14ac:dyDescent="0.25">
@@ -7140,7 +7136,7 @@
         <v>1034</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="180" x14ac:dyDescent="0.25">
@@ -7160,7 +7156,7 @@
         <v>140</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -7180,7 +7176,7 @@
         <v>147</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -7200,7 +7196,7 @@
         <v>1030</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>1238</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="165" x14ac:dyDescent="0.25">
@@ -7220,7 +7216,7 @@
         <v>64</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -7240,7 +7236,7 @@
         <v>1031</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>1240</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="195" x14ac:dyDescent="0.25">
@@ -7260,10 +7256,10 @@
         <v>1035</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="135" hidden="1" x14ac:dyDescent="0.25">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>157</v>
       </c>
@@ -7298,7 +7294,7 @@
         <v>1036</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="10" customFormat="1" ht="330" x14ac:dyDescent="0.25">
@@ -7318,7 +7314,7 @@
         <v>1037</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="135" x14ac:dyDescent="0.25">
@@ -7338,7 +7334,7 @@
         <v>1038</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="360" x14ac:dyDescent="0.25">
@@ -7358,7 +7354,7 @@
         <v>1039</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="285" x14ac:dyDescent="0.25">
@@ -7378,7 +7374,7 @@
         <v>1040</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -7398,7 +7394,7 @@
         <v>1041</v>
       </c>
       <c r="F60" s="24" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -7421,7 +7417,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>183</v>
       </c>
@@ -7456,7 +7452,7 @@
         <v>1042</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>1412</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -7476,7 +7472,7 @@
         <v>1043</v>
       </c>
       <c r="F64" s="24" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -7496,7 +7492,7 @@
         <v>1044</v>
       </c>
       <c r="F65" s="24" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="240" x14ac:dyDescent="0.25">
@@ -7516,7 +7512,7 @@
         <v>1045</v>
       </c>
       <c r="F66" s="24" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="390" x14ac:dyDescent="0.25">
@@ -7536,7 +7532,7 @@
         <v>1046</v>
       </c>
       <c r="F67" s="24" t="s">
-        <v>1251</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="180" x14ac:dyDescent="0.25">
@@ -7556,7 +7552,7 @@
         <v>1047</v>
       </c>
       <c r="F68" s="24" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="17" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
@@ -7576,7 +7572,7 @@
         <v>1048</v>
       </c>
       <c r="F69" s="24" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="150" x14ac:dyDescent="0.25">
@@ -7596,7 +7592,7 @@
         <v>1049</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="165" x14ac:dyDescent="0.25">
@@ -7636,7 +7632,7 @@
         <v>1050</v>
       </c>
       <c r="F72" s="24" t="s">
-        <v>1382</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="150" x14ac:dyDescent="0.25">
@@ -7656,7 +7652,7 @@
         <v>1051</v>
       </c>
       <c r="F73" s="24" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -7676,7 +7672,7 @@
         <v>1052</v>
       </c>
       <c r="F74" s="24" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="405" x14ac:dyDescent="0.25">
@@ -7696,7 +7692,7 @@
         <v>227</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="180" x14ac:dyDescent="0.25">
@@ -7716,7 +7712,7 @@
         <v>1053</v>
       </c>
       <c r="F76" s="24" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -7736,7 +7732,7 @@
         <v>1054</v>
       </c>
       <c r="F77" s="24" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="315" x14ac:dyDescent="0.25">
@@ -7756,7 +7752,7 @@
         <v>1055</v>
       </c>
       <c r="F78" s="24" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -7776,7 +7772,7 @@
         <v>240</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -7796,7 +7792,7 @@
         <v>1056</v>
       </c>
       <c r="F80" s="24" t="s">
-        <v>1262</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -7816,7 +7812,7 @@
         <v>1057</v>
       </c>
       <c r="F81" s="24" t="s">
-        <v>1263</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="135" x14ac:dyDescent="0.25">
@@ -7836,7 +7832,7 @@
         <v>250</v>
       </c>
       <c r="F82" s="24" t="s">
-        <v>1264</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -7856,7 +7852,7 @@
         <v>254</v>
       </c>
       <c r="F83" s="24" t="s">
-        <v>1265</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -7876,7 +7872,7 @@
         <v>1058</v>
       </c>
       <c r="F84" s="24" t="s">
-        <v>1384</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -7896,7 +7892,7 @@
         <v>1059</v>
       </c>
       <c r="F85" s="24" t="s">
-        <v>1266</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="150" x14ac:dyDescent="0.25">
@@ -7916,7 +7912,7 @@
         <v>1060</v>
       </c>
       <c r="F86" s="24" t="s">
-        <v>1267</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="390" x14ac:dyDescent="0.25">
@@ -7936,7 +7932,7 @@
         <v>1061</v>
       </c>
       <c r="F87" s="24" t="s">
-        <v>1268</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -7956,7 +7952,7 @@
         <v>1062</v>
       </c>
       <c r="F88" s="24" t="s">
-        <v>1269</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="21" customFormat="1" ht="300" x14ac:dyDescent="0.25">
@@ -7976,7 +7972,7 @@
         <v>1063</v>
       </c>
       <c r="F89" s="24" t="s">
-        <v>1270</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -7996,7 +7992,7 @@
         <v>1064</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>1271</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8016,7 +8012,7 @@
         <v>1065</v>
       </c>
       <c r="F91" s="24" t="s">
-        <v>1272</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8036,7 +8032,7 @@
         <v>1066</v>
       </c>
       <c r="F92" s="24" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8056,7 +8052,7 @@
         <v>1067</v>
       </c>
       <c r="F93" s="24" t="s">
-        <v>1274</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="330" x14ac:dyDescent="0.25">
@@ -8076,7 +8072,7 @@
         <v>1068</v>
       </c>
       <c r="F94" s="24" t="s">
-        <v>1275</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8096,7 +8092,7 @@
         <v>1069</v>
       </c>
       <c r="F95" s="19" t="s">
-        <v>1276</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8116,7 +8112,7 @@
         <v>1070</v>
       </c>
       <c r="F96" s="24" t="s">
-        <v>1277</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="180" x14ac:dyDescent="0.25">
@@ -8136,7 +8132,7 @@
         <v>1071</v>
       </c>
       <c r="F97" s="24" t="s">
-        <v>1278</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8156,7 +8152,7 @@
         <v>1072</v>
       </c>
       <c r="F98" s="24" t="s">
-        <v>1279</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8176,7 +8172,7 @@
         <v>1073</v>
       </c>
       <c r="F99" s="24" t="s">
-        <v>1280</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="390" x14ac:dyDescent="0.25">
@@ -8196,7 +8192,7 @@
         <v>1074</v>
       </c>
       <c r="F100" s="24" t="s">
-        <v>1386</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="300" x14ac:dyDescent="0.25">
@@ -8216,10 +8212,10 @@
         <v>1075</v>
       </c>
       <c r="F101" s="24" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>309</v>
       </c>
@@ -8254,7 +8250,7 @@
         <v>1050</v>
       </c>
       <c r="F103" s="24" t="s">
-        <v>1282</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8274,7 +8270,7 @@
         <v>1076</v>
       </c>
       <c r="F104" s="24" t="s">
-        <v>1283</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8294,7 +8290,7 @@
         <v>1077</v>
       </c>
       <c r="F105" s="24" t="s">
-        <v>1284</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="180" x14ac:dyDescent="0.25">
@@ -8314,7 +8310,7 @@
         <v>1078</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="150" x14ac:dyDescent="0.25">
@@ -8334,7 +8330,7 @@
         <v>1079</v>
       </c>
       <c r="F107" s="24" t="s">
-        <v>1286</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="225" x14ac:dyDescent="0.25">
@@ -8354,7 +8350,7 @@
         <v>1080</v>
       </c>
       <c r="F108" s="24" t="s">
-        <v>1287</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="150" x14ac:dyDescent="0.25">
@@ -8394,7 +8390,7 @@
         <v>1081</v>
       </c>
       <c r="F110" s="24" t="s">
-        <v>1270</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8414,7 +8410,7 @@
         <v>1082</v>
       </c>
       <c r="F111" s="24" t="s">
-        <v>1288</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -8434,7 +8430,7 @@
         <v>344</v>
       </c>
       <c r="F112" s="24" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="195" x14ac:dyDescent="0.25">
@@ -8454,7 +8450,7 @@
         <v>348</v>
       </c>
       <c r="F113" s="24" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="255" x14ac:dyDescent="0.25">
@@ -8474,7 +8470,7 @@
         <v>1083</v>
       </c>
       <c r="F114" s="24" t="s">
-        <v>1290</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8494,7 +8490,7 @@
         <v>1084</v>
       </c>
       <c r="F115" s="24" t="s">
-        <v>1291</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8514,7 +8510,7 @@
         <v>1085</v>
       </c>
       <c r="F116" s="24" t="s">
-        <v>1292</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="135" x14ac:dyDescent="0.25">
@@ -8534,7 +8530,7 @@
         <v>361</v>
       </c>
       <c r="F117" s="24" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -8554,7 +8550,7 @@
         <v>1086</v>
       </c>
       <c r="F118" s="24" t="s">
-        <v>1293</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8574,7 +8570,7 @@
         <v>1087</v>
       </c>
       <c r="F119" s="24" t="s">
-        <v>1294</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8594,7 +8590,7 @@
         <v>371</v>
       </c>
       <c r="F120" s="24" t="s">
-        <v>1295</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -8614,7 +8610,7 @@
         <v>375</v>
       </c>
       <c r="F121" s="24" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="255" x14ac:dyDescent="0.25">
@@ -8634,7 +8630,7 @@
         <v>1088</v>
       </c>
       <c r="F122" s="24" t="s">
-        <v>1296</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -8654,7 +8650,7 @@
         <v>1089</v>
       </c>
       <c r="F123" s="24" t="s">
-        <v>1297</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="195" x14ac:dyDescent="0.25">
@@ -8674,7 +8670,7 @@
         <v>1090</v>
       </c>
       <c r="F124" s="24" t="s">
-        <v>1389</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="390" x14ac:dyDescent="0.25">
@@ -8694,7 +8690,7 @@
         <v>388</v>
       </c>
       <c r="F125" s="24" t="s">
-        <v>1298</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8714,7 +8710,7 @@
         <v>1091</v>
       </c>
       <c r="F126" s="24" t="s">
-        <v>1299</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="150" x14ac:dyDescent="0.25">
@@ -8734,7 +8730,7 @@
         <v>1092</v>
       </c>
       <c r="F127" s="24" t="s">
-        <v>1300</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8754,7 +8750,7 @@
         <v>1093</v>
       </c>
       <c r="F128" s="24" t="s">
-        <v>1390</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="129" spans="1:6" s="25" customFormat="1" ht="315" x14ac:dyDescent="0.25">
@@ -8774,7 +8770,7 @@
         <v>1094</v>
       </c>
       <c r="F129" s="24" t="s">
-        <v>1301</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="130" spans="1:6" s="25" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
@@ -8794,7 +8790,7 @@
         <v>1095</v>
       </c>
       <c r="F130" s="24" t="s">
-        <v>1302</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="165" x14ac:dyDescent="0.25">
@@ -8814,7 +8810,7 @@
         <v>407</v>
       </c>
       <c r="F131" s="24" t="s">
-        <v>1303</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="315" x14ac:dyDescent="0.25">
@@ -8834,7 +8830,7 @@
         <v>1096</v>
       </c>
       <c r="F132" s="24" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="255" x14ac:dyDescent="0.25">
@@ -8854,7 +8850,7 @@
         <v>1097</v>
       </c>
       <c r="F133" s="24" t="s">
-        <v>1304</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8874,7 +8870,7 @@
         <v>1098</v>
       </c>
       <c r="F134" s="24" t="s">
-        <v>1305</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="195" x14ac:dyDescent="0.25">
@@ -8894,7 +8890,7 @@
         <v>1099</v>
       </c>
       <c r="F135" s="24" t="s">
-        <v>1306</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8914,7 +8910,7 @@
         <v>1203</v>
       </c>
       <c r="F136" s="24" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="330" x14ac:dyDescent="0.25">
@@ -8934,7 +8930,7 @@
         <v>1100</v>
       </c>
       <c r="F137" s="24" t="s">
-        <v>1387</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="135" x14ac:dyDescent="0.25">
@@ -8954,7 +8950,7 @@
         <v>433</v>
       </c>
       <c r="F138" s="24" t="s">
-        <v>1308</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8974,7 +8970,7 @@
         <v>1101</v>
       </c>
       <c r="F139" s="24" t="s">
-        <v>1309</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8994,7 +8990,7 @@
         <v>1102</v>
       </c>
       <c r="F140" s="24" t="s">
-        <v>1310</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="285" x14ac:dyDescent="0.25">
@@ -9014,7 +9010,7 @@
         <v>1103</v>
       </c>
       <c r="F141" s="24" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9034,7 +9030,7 @@
         <v>1104</v>
       </c>
       <c r="F142" s="24" t="s">
-        <v>1311</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="195" x14ac:dyDescent="0.25">
@@ -9054,7 +9050,7 @@
         <v>1105</v>
       </c>
       <c r="F143" s="24" t="s">
-        <v>1312</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="390" x14ac:dyDescent="0.25">
@@ -9074,7 +9070,7 @@
         <v>1106</v>
       </c>
       <c r="F144" s="24" t="s">
-        <v>1392</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="270" x14ac:dyDescent="0.25">
@@ -9094,7 +9090,7 @@
         <v>1107</v>
       </c>
       <c r="F145" s="24" t="s">
-        <v>1388</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="240" x14ac:dyDescent="0.25">
@@ -9114,7 +9110,7 @@
         <v>1108</v>
       </c>
       <c r="F146" s="24" t="s">
-        <v>1313</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -9134,7 +9130,7 @@
         <v>461</v>
       </c>
       <c r="F147" s="24" t="s">
-        <v>1314</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9154,7 +9150,7 @@
         <v>1109</v>
       </c>
       <c r="F148" s="24" t="s">
-        <v>1315</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="180" x14ac:dyDescent="0.25">
@@ -9194,7 +9190,7 @@
         <v>1111</v>
       </c>
       <c r="F150" s="24" t="s">
-        <v>1393</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="151" spans="1:6" s="25" customFormat="1" ht="180" x14ac:dyDescent="0.25">
@@ -9214,7 +9210,7 @@
         <v>474</v>
       </c>
       <c r="F151" s="24" t="s">
-        <v>1316</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9234,7 +9230,7 @@
         <v>1112</v>
       </c>
       <c r="F152" s="24" t="s">
-        <v>1317</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -9254,7 +9250,7 @@
         <v>1113</v>
       </c>
       <c r="F153" s="24" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9271,10 +9267,10 @@
         <v>880</v>
       </c>
       <c r="E154" s="30" t="s">
-        <v>1396</v>
+        <v>1362</v>
       </c>
       <c r="F154" s="24" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="240" x14ac:dyDescent="0.25">
@@ -9294,7 +9290,7 @@
         <v>1114</v>
       </c>
       <c r="F155" s="24" t="s">
-        <v>1318</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9314,7 +9310,7 @@
         <v>1115</v>
       </c>
       <c r="F156" s="24" t="s">
-        <v>1385</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9334,7 +9330,7 @@
         <v>1116</v>
       </c>
       <c r="F157" s="24" t="s">
-        <v>1319</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9354,7 +9350,7 @@
         <v>1117</v>
       </c>
       <c r="F158" s="24" t="s">
-        <v>1320</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="159" spans="1:6" s="25" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
@@ -9394,7 +9390,7 @@
         <v>1119</v>
       </c>
       <c r="F160" s="24" t="s">
-        <v>1321</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="195" x14ac:dyDescent="0.25">
@@ -9414,7 +9410,7 @@
         <v>509</v>
       </c>
       <c r="F161" s="24" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9434,7 +9430,7 @@
         <v>1121</v>
       </c>
       <c r="F162" s="24" t="s">
-        <v>1322</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9454,7 +9450,7 @@
         <v>1122</v>
       </c>
       <c r="F163" s="24" t="s">
-        <v>1323</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9474,7 +9470,7 @@
         <v>1123</v>
       </c>
       <c r="F164" s="24" t="s">
-        <v>1324</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="195" x14ac:dyDescent="0.25">
@@ -9494,7 +9490,7 @@
         <v>1124</v>
       </c>
       <c r="F165" s="24" t="s">
-        <v>1325</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9514,7 +9510,7 @@
         <v>1125</v>
       </c>
       <c r="F166" s="24" t="s">
-        <v>1416</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="390" x14ac:dyDescent="0.25">
@@ -9534,7 +9530,7 @@
         <v>1126</v>
       </c>
       <c r="F167" s="24" t="s">
-        <v>1326</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="180" x14ac:dyDescent="0.25">
@@ -9554,7 +9550,7 @@
         <v>1127</v>
       </c>
       <c r="F168" s="24" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="195" x14ac:dyDescent="0.25">
@@ -9574,7 +9570,7 @@
         <v>1128</v>
       </c>
       <c r="F169" s="24" t="s">
-        <v>1327</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="330" x14ac:dyDescent="0.25">
@@ -9594,7 +9590,7 @@
         <v>1129</v>
       </c>
       <c r="F170" s="24" t="s">
-        <v>1328</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="180" x14ac:dyDescent="0.25">
@@ -9614,7 +9610,7 @@
         <v>1130</v>
       </c>
       <c r="F171" s="24" t="s">
-        <v>1329</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9634,7 +9630,7 @@
         <v>1131</v>
       </c>
       <c r="F172" s="24" t="s">
-        <v>1394</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="173" spans="1:6" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.25">
@@ -9654,7 +9650,7 @@
         <v>1132</v>
       </c>
       <c r="F173" s="24" t="s">
-        <v>1399</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="240" x14ac:dyDescent="0.25">
@@ -9674,7 +9670,7 @@
         <v>1133</v>
       </c>
       <c r="F174" s="24" t="s">
-        <v>1330</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="210" x14ac:dyDescent="0.25">
@@ -9694,7 +9690,7 @@
         <v>1134</v>
       </c>
       <c r="F175" s="19" t="s">
-        <v>1331</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9714,7 +9710,7 @@
         <v>1135</v>
       </c>
       <c r="F176" s="24" t="s">
-        <v>1332</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="150" x14ac:dyDescent="0.25">
@@ -9734,7 +9730,7 @@
         <v>1136</v>
       </c>
       <c r="F177" s="24" t="s">
-        <v>1400</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9754,7 +9750,7 @@
         <v>1137</v>
       </c>
       <c r="F178" s="24" t="s">
-        <v>1333</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9774,7 +9770,7 @@
         <v>1138</v>
       </c>
       <c r="F179" s="24" t="s">
-        <v>1413</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="255" x14ac:dyDescent="0.25">
@@ -9794,7 +9790,7 @@
         <v>1139</v>
       </c>
       <c r="F180" s="24" t="s">
-        <v>1334</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="270" x14ac:dyDescent="0.25">
@@ -9814,7 +9810,7 @@
         <v>1140</v>
       </c>
       <c r="F181" s="24" t="s">
-        <v>1335</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9834,7 +9830,7 @@
         <v>1141</v>
       </c>
       <c r="F182" s="24" t="s">
-        <v>1336</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9854,7 +9850,7 @@
         <v>1142</v>
       </c>
       <c r="F183" s="24" t="s">
-        <v>1337</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="195" x14ac:dyDescent="0.25">
@@ -9874,7 +9870,7 @@
         <v>1143</v>
       </c>
       <c r="F184" s="24" t="s">
-        <v>1414</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="185" spans="1:6" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
@@ -9894,7 +9890,7 @@
         <v>1144</v>
       </c>
       <c r="F185" s="24" t="s">
-        <v>1401</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9914,7 +9910,7 @@
         <v>1145</v>
       </c>
       <c r="F186" s="24" t="s">
-        <v>1391</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9934,7 +9930,7 @@
         <v>1146</v>
       </c>
       <c r="F187" s="19" t="s">
-        <v>1338</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9954,7 +9950,7 @@
         <v>1147</v>
       </c>
       <c r="F188" s="24" t="s">
-        <v>1339</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9974,7 +9970,7 @@
         <v>1148</v>
       </c>
       <c r="F189" s="24" t="s">
-        <v>1340</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="165" x14ac:dyDescent="0.25">
@@ -9994,7 +9990,7 @@
         <v>1149</v>
       </c>
       <c r="F190" s="24" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="330" x14ac:dyDescent="0.25">
@@ -10014,7 +10010,7 @@
         <v>1150</v>
       </c>
       <c r="F191" s="24" t="s">
-        <v>1341</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="135" x14ac:dyDescent="0.25">
@@ -10034,7 +10030,7 @@
         <v>1151</v>
       </c>
       <c r="F192" s="24" t="s">
-        <v>1342</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -10054,7 +10050,7 @@
         <v>1152</v>
       </c>
       <c r="F193" s="24" t="s">
-        <v>1343</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -10074,7 +10070,7 @@
         <v>612</v>
       </c>
       <c r="F194" s="24" t="s">
-        <v>1344</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -10094,7 +10090,7 @@
         <v>1153</v>
       </c>
       <c r="F195" s="24" t="s">
-        <v>1345</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="135" x14ac:dyDescent="0.25">
@@ -10114,7 +10110,7 @@
         <v>1154</v>
       </c>
       <c r="F196" s="24" t="s">
-        <v>1346</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="270" x14ac:dyDescent="0.25">
@@ -10134,7 +10130,7 @@
         <v>1155</v>
       </c>
       <c r="F197" s="24" t="s">
-        <v>1347</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="270" x14ac:dyDescent="0.25">
@@ -10154,7 +10150,7 @@
         <v>1156</v>
       </c>
       <c r="F198" s="24" t="s">
-        <v>1348</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="315" x14ac:dyDescent="0.25">
@@ -10174,7 +10170,7 @@
         <v>1157</v>
       </c>
       <c r="F199" s="24" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -10194,7 +10190,7 @@
         <v>631</v>
       </c>
       <c r="F200" s="24" t="s">
-        <v>1349</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="315" x14ac:dyDescent="0.25">
@@ -10214,7 +10210,7 @@
         <v>1158</v>
       </c>
       <c r="F201" s="24" t="s">
-        <v>1350</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -10234,7 +10230,7 @@
         <v>638</v>
       </c>
       <c r="F202" s="24" t="s">
-        <v>1351</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -10254,7 +10250,7 @@
         <v>1159</v>
       </c>
       <c r="F203" s="24" t="s">
-        <v>1383</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="210" x14ac:dyDescent="0.25">
@@ -10294,7 +10290,7 @@
         <v>1160</v>
       </c>
       <c r="F205" s="24" t="s">
-        <v>1352</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="210" x14ac:dyDescent="0.25">
@@ -10314,7 +10310,7 @@
         <v>1161</v>
       </c>
       <c r="F206" s="24" t="s">
-        <v>1353</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="390" x14ac:dyDescent="0.25">
@@ -10334,7 +10330,7 @@
         <v>1162</v>
       </c>
       <c r="F207" s="24" t="s">
-        <v>1354</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -10354,7 +10350,7 @@
         <v>1163</v>
       </c>
       <c r="F208" s="24" t="s">
-        <v>1402</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -10374,7 +10370,7 @@
         <v>1164</v>
       </c>
       <c r="F209" s="24" t="s">
-        <v>1355</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="165" x14ac:dyDescent="0.25">
@@ -10394,7 +10390,7 @@
         <v>1165</v>
       </c>
       <c r="F210" s="24" t="s">
-        <v>1356</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -10414,7 +10410,7 @@
         <v>1166</v>
       </c>
       <c r="F211" s="24" t="s">
-        <v>1403</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="135" x14ac:dyDescent="0.25">
@@ -10434,7 +10430,7 @@
         <v>670</v>
       </c>
       <c r="F212" s="24" t="s">
-        <v>1357</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="390" x14ac:dyDescent="0.25">
@@ -10454,7 +10450,7 @@
         <v>1196</v>
       </c>
       <c r="F213" s="24" t="s">
-        <v>1415</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -10474,7 +10470,7 @@
         <v>677</v>
       </c>
       <c r="F214" s="24" t="s">
-        <v>1358</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -10494,7 +10490,7 @@
         <v>1167</v>
       </c>
       <c r="F215" s="24" t="s">
-        <v>1359</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -10514,7 +10510,7 @@
         <v>684</v>
       </c>
       <c r="F216" s="24" t="s">
-        <v>1360</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="225" x14ac:dyDescent="0.25">
@@ -10534,7 +10530,7 @@
         <v>1168</v>
       </c>
       <c r="F217" s="24" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="195" x14ac:dyDescent="0.25">
@@ -10554,7 +10550,7 @@
         <v>1169</v>
       </c>
       <c r="F218" s="24" t="s">
-        <v>1361</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -10574,7 +10570,7 @@
         <v>1170</v>
       </c>
       <c r="F219" s="24" t="s">
-        <v>1362</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -10594,7 +10590,7 @@
         <v>1171</v>
       </c>
       <c r="F220" s="24" t="s">
-        <v>1363</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -10614,7 +10610,7 @@
         <v>1172</v>
       </c>
       <c r="F221" s="24" t="s">
-        <v>1405</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="390" x14ac:dyDescent="0.25">
@@ -10634,7 +10630,7 @@
         <v>1173</v>
       </c>
       <c r="F222" s="24" t="s">
-        <v>1406</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="135" x14ac:dyDescent="0.25">
@@ -10654,7 +10650,7 @@
         <v>1174</v>
       </c>
       <c r="F223" s="24" t="s">
-        <v>1364</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="240" x14ac:dyDescent="0.25">
@@ -10674,7 +10670,7 @@
         <v>1175</v>
       </c>
       <c r="F224" s="24" t="s">
-        <v>1365</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="300" x14ac:dyDescent="0.25">
@@ -10694,7 +10690,7 @@
         <v>1176</v>
       </c>
       <c r="F225" s="24" t="s">
-        <v>1404</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="360" x14ac:dyDescent="0.25">
@@ -10714,7 +10710,7 @@
         <v>1177</v>
       </c>
       <c r="F226" s="24" t="s">
-        <v>1366</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -10734,7 +10730,7 @@
         <v>1180</v>
       </c>
       <c r="F227" s="24" t="s">
-        <v>1407</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="150" x14ac:dyDescent="0.25">
@@ -10754,7 +10750,7 @@
         <v>1181</v>
       </c>
       <c r="F228" s="24" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -10774,7 +10770,7 @@
         <v>147</v>
       </c>
       <c r="F229" s="24" t="s">
-        <v>1409</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="180" x14ac:dyDescent="0.25">
@@ -10794,7 +10790,7 @@
         <v>1182</v>
       </c>
       <c r="F230" s="24" t="s">
-        <v>1367</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="270" x14ac:dyDescent="0.25">
@@ -10814,7 +10810,7 @@
         <v>1183</v>
       </c>
       <c r="F231" s="24" t="s">
-        <v>1368</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -10834,7 +10830,7 @@
         <v>733</v>
       </c>
       <c r="F232" s="24" t="s">
-        <v>1369</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="150" x14ac:dyDescent="0.25">
@@ -10854,7 +10850,7 @@
         <v>737</v>
       </c>
       <c r="F233" s="24" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -10874,7 +10870,7 @@
         <v>741</v>
       </c>
       <c r="F234" s="24" t="s">
-        <v>1370</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="270" x14ac:dyDescent="0.25">
@@ -10914,7 +10910,7 @@
         <v>1184</v>
       </c>
       <c r="F236" s="24" t="s">
-        <v>1408</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -10934,7 +10930,7 @@
         <v>1185</v>
       </c>
       <c r="F237" s="24" t="s">
-        <v>1371</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="195" x14ac:dyDescent="0.25">
@@ -10954,7 +10950,7 @@
         <v>1186</v>
       </c>
       <c r="F238" s="24" t="s">
-        <v>1372</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="150" x14ac:dyDescent="0.25">
@@ -10974,7 +10970,7 @@
         <v>1187</v>
       </c>
       <c r="F239" s="24" t="s">
-        <v>1373</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="165" x14ac:dyDescent="0.25">
@@ -10994,7 +10990,7 @@
         <v>1188</v>
       </c>
       <c r="F240" s="24" t="s">
-        <v>1374</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -11014,7 +11010,7 @@
         <v>1189</v>
       </c>
       <c r="F241" s="24" t="s">
-        <v>1375</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="285" x14ac:dyDescent="0.25">
@@ -11034,7 +11030,7 @@
         <v>1190</v>
       </c>
       <c r="F242" s="24" t="s">
-        <v>1417</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="345" x14ac:dyDescent="0.25">
@@ -11054,7 +11050,7 @@
         <v>1191</v>
       </c>
       <c r="F243" s="24" t="s">
-        <v>1410</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -11074,7 +11070,7 @@
         <v>1193</v>
       </c>
       <c r="F244" s="24" t="s">
-        <v>1376</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="225" x14ac:dyDescent="0.25">
@@ -11094,200 +11090,200 @@
         <v>1194</v>
       </c>
       <c r="F245" s="24" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C246"/>
       <c r="E246"/>
       <c r="F246"/>
     </row>
-    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C247"/>
       <c r="E247"/>
       <c r="F247"/>
     </row>
-    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C248"/>
       <c r="E248"/>
       <c r="F248"/>
     </row>
-    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C249"/>
       <c r="E249"/>
       <c r="F249"/>
     </row>
-    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C250"/>
       <c r="E250"/>
       <c r="F250"/>
     </row>
-    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C251"/>
       <c r="E251"/>
       <c r="F251"/>
     </row>
-    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C252"/>
       <c r="E252"/>
       <c r="F252"/>
     </row>
-    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C253"/>
       <c r="E253"/>
       <c r="F253"/>
     </row>
-    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C254"/>
       <c r="E254"/>
       <c r="F254"/>
     </row>
-    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C255"/>
       <c r="E255"/>
       <c r="F255"/>
     </row>
-    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C256"/>
       <c r="E256"/>
       <c r="F256"/>
     </row>
-    <row r="257" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C257"/>
       <c r="E257"/>
       <c r="F257"/>
     </row>
-    <row r="258" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C258"/>
       <c r="E258"/>
       <c r="F258"/>
     </row>
-    <row r="259" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C259"/>
       <c r="E259"/>
       <c r="F259"/>
     </row>
-    <row r="260" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C260"/>
       <c r="E260"/>
       <c r="F260"/>
     </row>
-    <row r="261" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C261"/>
       <c r="E261"/>
       <c r="F261"/>
     </row>
-    <row r="262" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C262"/>
       <c r="E262"/>
       <c r="F262"/>
     </row>
-    <row r="263" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C263"/>
       <c r="E263"/>
       <c r="F263"/>
     </row>
-    <row r="264" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C264"/>
       <c r="E264"/>
       <c r="F264"/>
     </row>
-    <row r="265" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C265"/>
       <c r="E265"/>
       <c r="F265"/>
     </row>
-    <row r="266" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C266"/>
       <c r="E266"/>
       <c r="F266"/>
     </row>
-    <row r="267" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C267"/>
       <c r="E267"/>
       <c r="F267"/>
     </row>
-    <row r="268" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C268"/>
       <c r="E268"/>
       <c r="F268"/>
     </row>
-    <row r="269" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C269"/>
       <c r="E269"/>
       <c r="F269"/>
     </row>
-    <row r="270" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C270"/>
       <c r="E270"/>
       <c r="F270"/>
     </row>
-    <row r="271" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C271"/>
       <c r="E271"/>
       <c r="F271"/>
     </row>
-    <row r="272" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C272"/>
       <c r="E272"/>
       <c r="F272"/>
     </row>
-    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C273"/>
       <c r="E273"/>
       <c r="F273"/>
     </row>
-    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C274"/>
       <c r="E274"/>
       <c r="F274"/>
     </row>
-    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C275"/>
       <c r="E275"/>
       <c r="F275"/>
     </row>
-    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C276"/>
       <c r="E276"/>
       <c r="F276"/>
     </row>
-    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C277"/>
       <c r="E277"/>
       <c r="F277"/>
     </row>
-    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C278"/>
       <c r="E278"/>
       <c r="F278"/>
     </row>
-    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C279"/>
       <c r="E279"/>
       <c r="F279"/>
     </row>
-    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C280"/>
       <c r="E280"/>
       <c r="F280"/>
     </row>
-    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C281"/>
       <c r="E281"/>
       <c r="F281"/>
     </row>
-    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C282"/>
       <c r="E282"/>
       <c r="F282"/>
     </row>
-    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C283"/>
       <c r="E283"/>
       <c r="F283"/>
     </row>
-    <row r="284" spans="1:6" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284"/>
       <c r="B284"/>
       <c r="C284"/>
@@ -11295,17 +11291,17 @@
       <c r="E284"/>
       <c r="F284"/>
     </row>
-    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C285"/>
       <c r="E285"/>
       <c r="F285"/>
     </row>
-    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C286"/>
       <c r="E286"/>
       <c r="F286"/>
     </row>
-    <row r="287" spans="1:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287"/>
       <c r="B287"/>
       <c r="C287"/>
@@ -11313,37 +11309,37 @@
       <c r="E287"/>
       <c r="F287"/>
     </row>
-    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C288"/>
       <c r="E288"/>
       <c r="F288"/>
     </row>
-    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C289"/>
       <c r="E289"/>
       <c r="F289"/>
     </row>
-    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C290"/>
       <c r="E290"/>
       <c r="F290"/>
     </row>
-    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C291"/>
       <c r="E291"/>
       <c r="F291"/>
     </row>
-    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C292"/>
       <c r="E292"/>
       <c r="F292"/>
     </row>
-    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C293"/>
       <c r="E293"/>
       <c r="F293"/>
     </row>
-    <row r="294" spans="1:6" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294"/>
       <c r="B294"/>
       <c r="C294"/>
@@ -11351,72 +11347,72 @@
       <c r="E294"/>
       <c r="F294"/>
     </row>
-    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C295"/>
       <c r="E295"/>
       <c r="F295"/>
     </row>
-    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C296"/>
       <c r="E296"/>
       <c r="F296"/>
     </row>
-    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C297"/>
       <c r="E297"/>
       <c r="F297"/>
     </row>
-    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C298"/>
       <c r="E298"/>
       <c r="F298"/>
     </row>
-    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C299"/>
       <c r="E299"/>
       <c r="F299"/>
     </row>
-    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C300"/>
       <c r="E300"/>
       <c r="F300"/>
     </row>
-    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C301"/>
       <c r="E301"/>
       <c r="F301"/>
     </row>
-    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C302"/>
       <c r="E302"/>
       <c r="F302"/>
     </row>
-    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C303"/>
       <c r="E303"/>
       <c r="F303"/>
     </row>
-    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C304"/>
       <c r="E304"/>
       <c r="F304"/>
     </row>
-    <row r="305" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C305"/>
       <c r="E305"/>
       <c r="F305"/>
     </row>
-    <row r="306" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C306"/>
       <c r="E306"/>
       <c r="F306"/>
     </row>
-    <row r="307" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C307"/>
       <c r="E307"/>
       <c r="F307"/>
     </row>
-    <row r="308" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C308"/>
       <c r="E308"/>
       <c r="F308"/>
@@ -11442,13 +11438,7 @@
       <c r="F312"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F308" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="5">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F308" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11462,8 +11452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12388,10 +12378,10 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1378</v>
+        <v>1349</v>
       </c>
       <c r="B115" t="s">
-        <v>1379</v>
+        <v>1350</v>
       </c>
     </row>
   </sheetData>
